--- a/Excel/simpsons_guest_stars.xlsx
+++ b/Excel/simpsons_guest_stars.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackmods\Documents\GitHub\The-Simpsons-SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackmods\Documents\GitHub\The-Simpsons-SQL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="simpsons_guest_stars" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1107">
   <si>
     <t>season</t>
   </si>
@@ -3337,6 +3338,22 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO [dbo].[Guest_Star] ([Guest_Star]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,[Episode_Code],[Season]) VALUES </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4166,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="E2:F3"/>
+    <sheetView topLeftCell="A945" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14926,4 +14943,5866 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A974"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A974" sqref="A2:A974"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B2&amp;"','"&amp;simpsons_guest_stars!C2&amp;"','"&amp;simpsons_guest_stars!A2&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sam McMurray','7G03','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B3&amp;"','"&amp;simpsons_guest_stars!C3&amp;"','"&amp;simpsons_guest_stars!A3&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ron Taylor','7G06','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B4&amp;"','"&amp;simpsons_guest_stars!C4&amp;"','"&amp;simpsons_guest_stars!A4&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','7G09','1');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B5&amp;"','"&amp;simpsons_guest_stars!C5&amp;"','"&amp;simpsons_guest_stars!A5&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','7G11','1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B6&amp;"','"&amp;simpsons_guest_stars!C6&amp;"','"&amp;simpsons_guest_stars!A6&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sam McMurray','7G10','1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B7&amp;"','"&amp;simpsons_guest_stars!C7&amp;"','"&amp;simpsons_guest_stars!A7&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','7G12','1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B8&amp;"','"&amp;simpsons_guest_stars!C8&amp;"','"&amp;simpsons_guest_stars!A8&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('June Foray','7G01','1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B9&amp;"','"&amp;simpsons_guest_stars!C9&amp;"','"&amp;simpsons_guest_stars!A9&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Penny Marshall','7G01','1');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B10&amp;"','"&amp;simpsons_guest_stars!C10&amp;"','"&amp;simpsons_guest_stars!A10&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Willson','7G01','1');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B11&amp;"','"&amp;simpsons_guest_stars!C11&amp;"','"&amp;simpsons_guest_stars!A11&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Harvey Fierstein','7F02','2');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B12&amp;"','"&amp;simpsons_guest_stars!C12&amp;"','"&amp;simpsons_guest_stars!A12&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Earl Jones','7F04','2');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B13&amp;"','"&amp;simpsons_guest_stars!C13&amp;"','"&amp;simpsons_guest_stars!A13&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tony Bennett','7F05','2');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B14&amp;"','"&amp;simpsons_guest_stars!C14&amp;"','"&amp;simpsons_guest_stars!A14&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Daryl Coley','7F05','2');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B15&amp;"','"&amp;simpsons_guest_stars!C15&amp;"','"&amp;simpsons_guest_stars!A15&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ken Levine','7F05','2');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B16&amp;"','"&amp;simpsons_guest_stars!C16&amp;"','"&amp;simpsons_guest_stars!A16&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Poston','7F05','2');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B17&amp;"','"&amp;simpsons_guest_stars!C17&amp;"','"&amp;simpsons_guest_stars!A17&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Greg Berg','7F07','2');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B18&amp;"','"&amp;simpsons_guest_stars!C18&amp;"','"&amp;simpsons_guest_stars!A18&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alex Rocco','7F09','2');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B19&amp;"','"&amp;simpsons_guest_stars!C19&amp;"','"&amp;simpsons_guest_stars!A19&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','7F10','2');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B20&amp;"','"&amp;simpsons_guest_stars!C20&amp;"','"&amp;simpsons_guest_stars!A20&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Larry King','7F11','2');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B21&amp;"','"&amp;simpsons_guest_stars!C21&amp;"','"&amp;simpsons_guest_stars!A21&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joey Miyashima','7F11','2');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B22&amp;"','"&amp;simpsons_guest_stars!C22&amp;"','"&amp;simpsons_guest_stars!A22&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sab Shimono','7F11','2');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B23&amp;"','"&amp;simpsons_guest_stars!C23&amp;"','"&amp;simpsons_guest_stars!A23&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Takei','7F11','2');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B24&amp;"','"&amp;simpsons_guest_stars!C24&amp;"','"&amp;simpsons_guest_stars!A24&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Diana Tanaka','7F11','2');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B25&amp;"','"&amp;simpsons_guest_stars!C25&amp;"','"&amp;simpsons_guest_stars!A25&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','7F12','2');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B26&amp;"','"&amp;simpsons_guest_stars!C26&amp;"','"&amp;simpsons_guest_stars!A26&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','7F13','2');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B27&amp;"','"&amp;simpsons_guest_stars!C27&amp;"','"&amp;simpsons_guest_stars!A27&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Danny DeVito','7F16','2');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B28&amp;"','"&amp;simpsons_guest_stars!C28&amp;"','"&amp;simpsons_guest_stars!A28&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tracey Ullman','7F14','2');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B29&amp;"','"&amp;simpsons_guest_stars!C29&amp;"','"&amp;simpsons_guest_stars!A29&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','7F14','2');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B30&amp;"','"&amp;simpsons_guest_stars!C30&amp;"','"&amp;simpsons_guest_stars!A30&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','7F17','2');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B31&amp;"','"&amp;simpsons_guest_stars!C31&amp;"','"&amp;simpsons_guest_stars!A31&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Audrey Meadows','7F17','2');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B32&amp;"','"&amp;simpsons_guest_stars!C32&amp;"','"&amp;simpsons_guest_stars!A32&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','7F18','2');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B33&amp;"','"&amp;simpsons_guest_stars!C33&amp;"','"&amp;simpsons_guest_stars!A33&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ringo Starr','7F18','2');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B34&amp;"','"&amp;simpsons_guest_stars!C34&amp;"','"&amp;simpsons_guest_stars!A34&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dustin Hoffman','7F19','2');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B35&amp;"','"&amp;simpsons_guest_stars!C35&amp;"','"&amp;simpsons_guest_stars!A35&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cloris Leachman','7F21','2');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B36&amp;"','"&amp;simpsons_guest_stars!C36&amp;"','"&amp;simpsons_guest_stars!A36&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Daniel Stern','7F21','2');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B37&amp;"','"&amp;simpsons_guest_stars!C37&amp;"','"&amp;simpsons_guest_stars!A37&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Jackson','7F24','3');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B38&amp;"','"&amp;simpsons_guest_stars!C38&amp;"','"&amp;simpsons_guest_stars!A38&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kipp Lennon','7F24','3');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B39&amp;"','"&amp;simpsons_guest_stars!C39&amp;"','"&amp;simpsons_guest_stars!A39&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lona Williams','8F01','3');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B40&amp;"','"&amp;simpsons_guest_stars!C40&amp;"','"&amp;simpsons_guest_stars!A40&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Neil Patrick Harris','8F03','3');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B41&amp;"','"&amp;simpsons_guest_stars!C41&amp;"','"&amp;simpsons_guest_stars!A41&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F03','3');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B42&amp;"','"&amp;simpsons_guest_stars!C42&amp;"','"&amp;simpsons_guest_stars!A42&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','8F03','3');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B43&amp;"','"&amp;simpsons_guest_stars!C43&amp;"','"&amp;simpsons_guest_stars!A43&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Chick Hearn','8F04','3');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B44&amp;"','"&amp;simpsons_guest_stars!C44&amp;"','"&amp;simpsons_guest_stars!A44&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Magic Johnson','8F04','3');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B45&amp;"','"&amp;simpsons_guest_stars!C45&amp;"','"&amp;simpsons_guest_stars!A45&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','8F04','3');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B46&amp;"','"&amp;simpsons_guest_stars!C46&amp;"','"&amp;simpsons_guest_stars!A46&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','8F05','3');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B47&amp;"','"&amp;simpsons_guest_stars!C47&amp;"','"&amp;simpsons_guest_stars!A47&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','8F06','3');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B48&amp;"','"&amp;simpsons_guest_stars!C48&amp;"','"&amp;simpsons_guest_stars!A48&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F07','3');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B49&amp;"','"&amp;simpsons_guest_stars!C49&amp;"','"&amp;simpsons_guest_stars!A49&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Larry McKay','8F07','3');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B50&amp;"','"&amp;simpsons_guest_stars!C50&amp;"','"&amp;simpsons_guest_stars!A50&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Aerosmith','8F08','3');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B51&amp;"','"&amp;simpsons_guest_stars!C51&amp;"','"&amp;simpsons_guest_stars!A51&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F08','3');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B52&amp;"','"&amp;simpsons_guest_stars!C52&amp;"','"&amp;simpsons_guest_stars!A52&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F09','3');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B53&amp;"','"&amp;simpsons_guest_stars!C53&amp;"','"&amp;simpsons_guest_stars!A53&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sting','8F11','3');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B54&amp;"','"&amp;simpsons_guest_stars!C54&amp;"','"&amp;simpsons_guest_stars!A54&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F12','3');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B55&amp;"','"&amp;simpsons_guest_stars!C55&amp;"','"&amp;simpsons_guest_stars!A55&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F14','3');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B56&amp;"','"&amp;simpsons_guest_stars!C56&amp;"','"&amp;simpsons_guest_stars!A56&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Wade Boggs','8F13','3');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B57&amp;"','"&amp;simpsons_guest_stars!C57&amp;"','"&amp;simpsons_guest_stars!A57&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jose Canseco','8F13','3');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B58&amp;"','"&amp;simpsons_guest_stars!C58&amp;"','"&amp;simpsons_guest_stars!A58&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Roger Clemens','8F13','3');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B59&amp;"','"&amp;simpsons_guest_stars!C59&amp;"','"&amp;simpsons_guest_stars!A59&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Terry Cashman','8F13','3');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B60&amp;"','"&amp;simpsons_guest_stars!C60&amp;"','"&amp;simpsons_guest_stars!A60&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ken Griffey Jr.','8F13','3');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B61&amp;"','"&amp;simpsons_guest_stars!C61&amp;"','"&amp;simpsons_guest_stars!A61&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Don Mattingly','8F13','3');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B62&amp;"','"&amp;simpsons_guest_stars!C62&amp;"','"&amp;simpsons_guest_stars!A62&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Sax','8F13','3');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B63&amp;"','"&amp;simpsons_guest_stars!C63&amp;"','"&amp;simpsons_guest_stars!A63&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mike Scioscia','8F13','3');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B64&amp;"','"&amp;simpsons_guest_stars!C64&amp;"','"&amp;simpsons_guest_stars!A64&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ozzie Smith','8F13','3');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B65&amp;"','"&amp;simpsons_guest_stars!C65&amp;"','"&amp;simpsons_guest_stars!A65&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Darryl Strawberry','8F13','3');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B66&amp;"','"&amp;simpsons_guest_stars!C66&amp;"','"&amp;simpsons_guest_stars!A66&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Allen','8F15','3');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B67&amp;"','"&amp;simpsons_guest_stars!C67&amp;"','"&amp;simpsons_guest_stars!A67&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','8F17','3');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B68&amp;"','"&amp;simpsons_guest_stars!C68&amp;"','"&amp;simpsons_guest_stars!A68&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Beverly D'Angelo','8F19','3');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B69&amp;"','"&amp;simpsons_guest_stars!C69&amp;"','"&amp;simpsons_guest_stars!A69&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','8F20','3');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B70&amp;"','"&amp;simpsons_guest_stars!C70&amp;"','"&amp;simpsons_guest_stars!A70&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Christopher Guest','8F21','3');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B71&amp;"','"&amp;simpsons_guest_stars!C71&amp;"','"&amp;simpsons_guest_stars!A71&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael McKean','8F21','3');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B72&amp;"','"&amp;simpsons_guest_stars!C72&amp;"','"&amp;simpsons_guest_stars!A72&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F22','3');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B73&amp;"','"&amp;simpsons_guest_stars!C73&amp;"','"&amp;simpsons_guest_stars!A73&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kimmy Robertson','8F22','3');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B74&amp;"','"&amp;simpsons_guest_stars!C74&amp;"','"&amp;simpsons_guest_stars!A74&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Danny DeVito','8F23','3');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B75&amp;"','"&amp;simpsons_guest_stars!C75&amp;"','"&amp;simpsons_guest_stars!A75&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Frazier','8F23','3');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B76&amp;"','"&amp;simpsons_guest_stars!C76&amp;"','"&amp;simpsons_guest_stars!A76&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','8F18','4');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B77&amp;"','"&amp;simpsons_guest_stars!C77&amp;"','"&amp;simpsons_guest_stars!A77&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','8F18','4');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B78&amp;"','"&amp;simpsons_guest_stars!C78&amp;"','"&amp;simpsons_guest_stars!A78&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lona Williams','8F18','4');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B79&amp;"','"&amp;simpsons_guest_stars!C79&amp;"','"&amp;simpsons_guest_stars!A79&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bob Hope','9F02','4');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B80&amp;"','"&amp;simpsons_guest_stars!C80&amp;"','"&amp;simpsons_guest_stars!A80&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lona Williams','9F02','4');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B81&amp;"','"&amp;simpsons_guest_stars!C81&amp;"','"&amp;simpsons_guest_stars!A81&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F05','4');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B82&amp;"','"&amp;simpsons_guest_stars!C82&amp;"','"&amp;simpsons_guest_stars!A82&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Jones','9F05','4');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B83&amp;"','"&amp;simpsons_guest_stars!C83&amp;"','"&amp;simpsons_guest_stars!A83&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sara Gilbert','9F06','4');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B84&amp;"','"&amp;simpsons_guest_stars!C84&amp;"','"&amp;simpsons_guest_stars!A84&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F06','4');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B85&amp;"','"&amp;simpsons_guest_stars!C85&amp;"','"&amp;simpsons_guest_stars!A85&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pamela Reed','9F06','4');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B86&amp;"','"&amp;simpsons_guest_stars!C86&amp;"','"&amp;simpsons_guest_stars!A86&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F07','4');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B87&amp;"','"&amp;simpsons_guest_stars!C87&amp;"','"&amp;simpsons_guest_stars!A87&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Linda Ronstadt','9F07','4');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B88&amp;"','"&amp;simpsons_guest_stars!C88&amp;"','"&amp;simpsons_guest_stars!A88&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Adam West','9F07','4');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B89&amp;"','"&amp;simpsons_guest_stars!C89&amp;"','"&amp;simpsons_guest_stars!A89&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elizabeth Taylor','9F08','4');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B90&amp;"','"&amp;simpsons_guest_stars!C90&amp;"','"&amp;simpsons_guest_stars!A90&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F10','4');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B91&amp;"','"&amp;simpsons_guest_stars!C91&amp;"','"&amp;simpsons_guest_stars!A91&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Leonard Nimoy','9F10','4');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B92&amp;"','"&amp;simpsons_guest_stars!C92&amp;"','"&amp;simpsons_guest_stars!A92&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F11','4');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B93&amp;"','"&amp;simpsons_guest_stars!C93&amp;"','"&amp;simpsons_guest_stars!A93&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F12','4');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B94&amp;"','"&amp;simpsons_guest_stars!C94&amp;"','"&amp;simpsons_guest_stars!A94&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Carrington','9F13','4');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B95&amp;"','"&amp;simpsons_guest_stars!C95&amp;"','"&amp;simpsons_guest_stars!A95&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F14','4');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B96&amp;"','"&amp;simpsons_guest_stars!C96&amp;"','"&amp;simpsons_guest_stars!A96&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joyce Brothers','9F15','4');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B97&amp;"','"&amp;simpsons_guest_stars!C97&amp;"','"&amp;simpsons_guest_stars!A97&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brooke Shields','9F16','4');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B98&amp;"','"&amp;simpsons_guest_stars!C98&amp;"','"&amp;simpsons_guest_stars!A98&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Barry White','9F18','4');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B99&amp;"','"&amp;simpsons_guest_stars!C99&amp;"','"&amp;simpsons_guest_stars!A99&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Crosby','9F20','4');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B100&amp;"','"&amp;simpsons_guest_stars!C100&amp;"','"&amp;simpsons_guest_stars!A100&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','9F20','4');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B101&amp;"','"&amp;simpsons_guest_stars!C101&amp;"','"&amp;simpsons_guest_stars!A101&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Johnny Carson','9F19','4');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B102&amp;"','"&amp;simpsons_guest_stars!C102&amp;"','"&amp;simpsons_guest_stars!A102&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Hugh Hefner','9F19','4');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B103&amp;"','"&amp;simpsons_guest_stars!C103&amp;"','"&amp;simpsons_guest_stars!A103&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bette Midler','9F19','4');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B104&amp;"','"&amp;simpsons_guest_stars!C104&amp;"','"&amp;simpsons_guest_stars!A104&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Luke Perry','9F19','4');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B105&amp;"','"&amp;simpsons_guest_stars!C105&amp;"','"&amp;simpsons_guest_stars!A105&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Red Hot Chili Peppers','9F19','4');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B106&amp;"','"&amp;simpsons_guest_stars!C106&amp;"','"&amp;simpsons_guest_stars!A106&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elizabeth Taylor','9F19','4');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B107&amp;"','"&amp;simpsons_guest_stars!C107&amp;"','"&amp;simpsons_guest_stars!A107&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Barry White','9F19','4');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B108&amp;"','"&amp;simpsons_guest_stars!C108&amp;"','"&amp;simpsons_guest_stars!A108&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Crosby','9F21','5');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B109&amp;"','"&amp;simpsons_guest_stars!C109&amp;"','"&amp;simpsons_guest_stars!A109&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('The Dapper Dans','9F21','5');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B110&amp;"','"&amp;simpsons_guest_stars!C110&amp;"','"&amp;simpsons_guest_stars!A110&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Harrison','9F21','5');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B111&amp;"','"&amp;simpsons_guest_stars!C111&amp;"','"&amp;simpsons_guest_stars!A111&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','9F22','5');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B112&amp;"','"&amp;simpsons_guest_stars!C112&amp;"','"&amp;simpsons_guest_stars!A112&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ramones','1F01','5');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B113&amp;"','"&amp;simpsons_guest_stars!C113&amp;"','"&amp;simpsons_guest_stars!A113&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F04','5');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B114&amp;"','"&amp;simpsons_guest_stars!C114&amp;"','"&amp;simpsons_guest_stars!A114&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','1F04','5');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B115&amp;"','"&amp;simpsons_guest_stars!C115&amp;"','"&amp;simpsons_guest_stars!A115&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Fenneman','1F03','5');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B116&amp;"','"&amp;simpsons_guest_stars!C116&amp;"','"&amp;simpsons_guest_stars!A116&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F03','5');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B117&amp;"','"&amp;simpsons_guest_stars!C117&amp;"','"&amp;simpsons_guest_stars!A117&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pamela Reed','1F03','5');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B118&amp;"','"&amp;simpsons_guest_stars!C118&amp;"','"&amp;simpsons_guest_stars!A118&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','1F05','5');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B119&amp;"','"&amp;simpsons_guest_stars!C119&amp;"','"&amp;simpsons_guest_stars!A119&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Brown','1F05','5');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B120&amp;"','"&amp;simpsons_guest_stars!C120&amp;"','"&amp;simpsons_guest_stars!A120&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F05','5');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B121&amp;"','"&amp;simpsons_guest_stars!C121&amp;"','"&amp;simpsons_guest_stars!A121&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ernest Borgnine','1F06','5');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B122&amp;"','"&amp;simpsons_guest_stars!C122&amp;"','"&amp;simpsons_guest_stars!A122&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F08','5');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B123&amp;"','"&amp;simpsons_guest_stars!C123&amp;"','"&amp;simpsons_guest_stars!A123&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Werner Klemperer','1F08','5');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B124&amp;"','"&amp;simpsons_guest_stars!C124&amp;"','"&amp;simpsons_guest_stars!A124&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michelle Pfeiffer','1F08','5');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B125&amp;"','"&amp;simpsons_guest_stars!C125&amp;"','"&amp;simpsons_guest_stars!A125&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gerry Cooney','1F08','5');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B126&amp;"','"&amp;simpsons_guest_stars!C126&amp;"','"&amp;simpsons_guest_stars!A126&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Goulet','1F08','5');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B127&amp;"','"&amp;simpsons_guest_stars!C127&amp;"','"&amp;simpsons_guest_stars!A127&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sam Neill','1F09','5');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B128&amp;"','"&amp;simpsons_guest_stars!C128&amp;"','"&amp;simpsons_guest_stars!A128&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Conan O'Brien','1F11','5');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B129&amp;"','"&amp;simpsons_guest_stars!C129&amp;"','"&amp;simpsons_guest_stars!A129&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Carrington','1F10','5');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B130&amp;"','"&amp;simpsons_guest_stars!C130&amp;"','"&amp;simpsons_guest_stars!A130&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Woods','1F10','5');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B131&amp;"','"&amp;simpsons_guest_stars!C131&amp;"','"&amp;simpsons_guest_stars!A131&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kathleen Turner','1F12','5');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B132&amp;"','"&amp;simpsons_guest_stars!C132&amp;"','"&amp;simpsons_guest_stars!A132&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Buzz Aldrin','1F13','5');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B133&amp;"','"&amp;simpsons_guest_stars!C133&amp;"','"&amp;simpsons_guest_stars!A133&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Taylor','1F13','5');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B134&amp;"','"&amp;simpsons_guest_stars!C134&amp;"','"&amp;simpsons_guest_stars!A134&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','1F15','5');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B135&amp;"','"&amp;simpsons_guest_stars!C135&amp;"','"&amp;simpsons_guest_stars!A135&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F16','5');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B136&amp;"','"&amp;simpsons_guest_stars!C136&amp;"','"&amp;simpsons_guest_stars!A136&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','1F18','5');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B137&amp;"','"&amp;simpsons_guest_stars!C137&amp;"','"&amp;simpsons_guest_stars!A137&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F19','5');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B138&amp;"','"&amp;simpsons_guest_stars!C138&amp;"','"&amp;simpsons_guest_stars!A138&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F19','5');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B139&amp;"','"&amp;simpsons_guest_stars!C139&amp;"','"&amp;simpsons_guest_stars!A139&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F19','5');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B140&amp;"','"&amp;simpsons_guest_stars!C140&amp;"','"&amp;simpsons_guest_stars!A140&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Winona Ryder','2F02','6');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B141&amp;"','"&amp;simpsons_guest_stars!C141&amp;"','"&amp;simpsons_guest_stars!A141&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Henry Corden','1F13','6');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B142&amp;"','"&amp;simpsons_guest_stars!C142&amp;"','"&amp;simpsons_guest_stars!A142&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dr. Demento','1F13','6');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B143&amp;"','"&amp;simpsons_guest_stars!C143&amp;"','"&amp;simpsons_guest_stars!A143&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','1F13','6');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B144&amp;"','"&amp;simpsons_guest_stars!C144&amp;"','"&amp;simpsons_guest_stars!A144&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','1F13','6');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B145&amp;"','"&amp;simpsons_guest_stars!C145&amp;"','"&amp;simpsons_guest_stars!A145&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Larry King','1F13','6');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B146&amp;"','"&amp;simpsons_guest_stars!C146&amp;"','"&amp;simpsons_guest_stars!A146&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Earl Jones','2F03','6');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B147&amp;"','"&amp;simpsons_guest_stars!C147&amp;"','"&amp;simpsons_guest_stars!A147&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Meryl Streep','2F04','6');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B148&amp;"','"&amp;simpsons_guest_stars!C148&amp;"','"&amp;simpsons_guest_stars!A148&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dennis Franz','2F06','6');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B149&amp;"','"&amp;simpsons_guest_stars!C149&amp;"','"&amp;simpsons_guest_stars!A149&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F07','6');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B150&amp;"','"&amp;simpsons_guest_stars!C150&amp;"','"&amp;simpsons_guest_stars!A150&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anne Bancroft','2F08','6');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B151&amp;"','"&amp;simpsons_guest_stars!C151&amp;"','"&amp;simpsons_guest_stars!A151&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ted Danson','2F08','6');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B152&amp;"','"&amp;simpsons_guest_stars!C152&amp;"','"&amp;simpsons_guest_stars!A152&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Woody Harrelson','2F08','6');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B153&amp;"','"&amp;simpsons_guest_stars!C153&amp;"','"&amp;simpsons_guest_stars!A153&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Ratzenberger','2F08','6');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B154&amp;"','"&amp;simpsons_guest_stars!C154&amp;"','"&amp;simpsons_guest_stars!A154&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rhea Perlman','2F08','6');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B155&amp;"','"&amp;simpsons_guest_stars!C155&amp;"','"&amp;simpsons_guest_stars!A155&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Wendt','2F08','6');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B156&amp;"','"&amp;simpsons_guest_stars!C156&amp;"','"&amp;simpsons_guest_stars!A156&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Patrick Stewart','2F09','6');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B157&amp;"','"&amp;simpsons_guest_stars!C157&amp;"','"&amp;simpsons_guest_stars!A157&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dick Cavett','2F12','6');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B158&amp;"','"&amp;simpsons_guest_stars!C158&amp;"','"&amp;simpsons_guest_stars!A158&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','2F12','6');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B159&amp;"','"&amp;simpsons_guest_stars!C159&amp;"','"&amp;simpsons_guest_stars!A159&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Johnny Unitas','2F12','6');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B160&amp;"','"&amp;simpsons_guest_stars!C160&amp;"','"&amp;simpsons_guest_stars!A160&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F13','6');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B161&amp;"','"&amp;simpsons_guest_stars!C161&amp;"','"&amp;simpsons_guest_stars!A161&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mel Brooks','2F14','6');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B162&amp;"','"&amp;simpsons_guest_stars!C162&amp;"','"&amp;simpsons_guest_stars!A162&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Susan Sarandon','2F14','6');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B163&amp;"','"&amp;simpsons_guest_stars!C163&amp;"','"&amp;simpsons_guest_stars!A163&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F31','6');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B164&amp;"','"&amp;simpsons_guest_stars!C164&amp;"','"&amp;simpsons_guest_stars!A164&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','2F31','6');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B165&amp;"','"&amp;simpsons_guest_stars!C165&amp;"','"&amp;simpsons_guest_stars!A165&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','2F31','6');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B166&amp;"','"&amp;simpsons_guest_stars!C166&amp;"','"&amp;simpsons_guest_stars!A166&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F15','6');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B167&amp;"','"&amp;simpsons_guest_stars!C167&amp;"','"&amp;simpsons_guest_stars!A167&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mandy Patinkin','2F15','6');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B168&amp;"','"&amp;simpsons_guest_stars!C168&amp;"','"&amp;simpsons_guest_stars!A168&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','2F18','6');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B169&amp;"','"&amp;simpsons_guest_stars!C169&amp;"','"&amp;simpsons_guest_stars!A169&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Allen','2F32','6');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B170&amp;"','"&amp;simpsons_guest_stars!C170&amp;"','"&amp;simpsons_guest_stars!A170&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F32','6');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B171&amp;"','"&amp;simpsons_guest_stars!C171&amp;"','"&amp;simpsons_guest_stars!A171&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ron Taylor','2F32','6');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B172&amp;"','"&amp;simpsons_guest_stars!C172&amp;"','"&amp;simpsons_guest_stars!A172&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F21','6');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B173&amp;"','"&amp;simpsons_guest_stars!C173&amp;"','"&amp;simpsons_guest_stars!A173&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tito Puente','2F16','6');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B174&amp;"','"&amp;simpsons_guest_stars!C174&amp;"','"&amp;simpsons_guest_stars!A174&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tito Puente','2F20','7');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B175&amp;"','"&amp;simpsons_guest_stars!C175&amp;"','"&amp;simpsons_guest_stars!A175&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','2F17','7');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B176&amp;"','"&amp;simpsons_guest_stars!C176&amp;"','"&amp;simpsons_guest_stars!A176&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mickey Rooney','2F17','7');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B177&amp;"','"&amp;simpsons_guest_stars!C177&amp;"','"&amp;simpsons_guest_stars!A177&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joan Kenley','3F01','7');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B178&amp;"','"&amp;simpsons_guest_stars!C178&amp;"','"&amp;simpsons_guest_stars!A178&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','3F01','7');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B179&amp;"','"&amp;simpsons_guest_stars!C179&amp;"','"&amp;simpsons_guest_stars!A179&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F03','7');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B180&amp;"','"&amp;simpsons_guest_stars!C180&amp;"','"&amp;simpsons_guest_stars!A180&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Linda McCartney','3F03','7');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B181&amp;"','"&amp;simpsons_guest_stars!C181&amp;"','"&amp;simpsons_guest_stars!A181&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul McCartney','3F03','7');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B182&amp;"','"&amp;simpsons_guest_stars!C182&amp;"','"&amp;simpsons_guest_stars!A182&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Anka','3F04','7');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B183&amp;"','"&amp;simpsons_guest_stars!C183&amp;"','"&amp;simpsons_guest_stars!A183&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joan Kenley','3F05','7');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B184&amp;"','"&amp;simpsons_guest_stars!C184&amp;"','"&amp;simpsons_guest_stars!A184&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','3F06','7');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B185&amp;"','"&amp;simpsons_guest_stars!C185&amp;"','"&amp;simpsons_guest_stars!A185&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Harry Morgan','3F06','7');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B186&amp;"','"&amp;simpsons_guest_stars!C186&amp;"','"&amp;simpsons_guest_stars!A186&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('R. Lee Ermey','3F08','7');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B187&amp;"','"&amp;simpsons_guest_stars!C187&amp;"','"&amp;simpsons_guest_stars!A187&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','3F08','7');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B188&amp;"','"&amp;simpsons_guest_stars!C188&amp;"','"&amp;simpsons_guest_stars!A188&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F31','7');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B189&amp;"','"&amp;simpsons_guest_stars!C189&amp;"','"&amp;simpsons_guest_stars!A189&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F07','7');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B190&amp;"','"&amp;simpsons_guest_stars!C190&amp;"','"&amp;simpsons_guest_stars!A190&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lawrence Tierney','3F07','7');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B191&amp;"','"&amp;simpsons_guest_stars!C191&amp;"','"&amp;simpsons_guest_stars!A191&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Kite','3F11','7');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B192&amp;"','"&amp;simpsons_guest_stars!C192&amp;"','"&amp;simpsons_guest_stars!A192&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F12','7');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B193&amp;"','"&amp;simpsons_guest_stars!C193&amp;"','"&amp;simpsons_guest_stars!A193&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bob Newhart','3F12','7');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B194&amp;"','"&amp;simpsons_guest_stars!C194&amp;"','"&amp;simpsons_guest_stars!A194&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F13','7');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B195&amp;"','"&amp;simpsons_guest_stars!C195&amp;"','"&amp;simpsons_guest_stars!A195&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Donald Sutherland','3F13','7');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B196&amp;"','"&amp;simpsons_guest_stars!C196&amp;"','"&amp;simpsons_guest_stars!A196&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kirk Douglas','3F16','7');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B197&amp;"','"&amp;simpsons_guest_stars!C197&amp;"','"&amp;simpsons_guest_stars!A197&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F16','7');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B198&amp;"','"&amp;simpsons_guest_stars!C198&amp;"','"&amp;simpsons_guest_stars!A198&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alex Rocco','3F16','7');</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B199&amp;"','"&amp;simpsons_guest_stars!C199&amp;"','"&amp;simpsons_guest_stars!A199&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack Sheldon','3F16','7');</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B200&amp;"','"&amp;simpsons_guest_stars!C200&amp;"','"&amp;simpsons_guest_stars!A200&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Suzanne Somers','3F16','7');</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B201&amp;"','"&amp;simpsons_guest_stars!C201&amp;"','"&amp;simpsons_guest_stars!A201&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jeff Goldblum','3F15','7');</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B202&amp;"','"&amp;simpsons_guest_stars!C202&amp;"','"&amp;simpsons_guest_stars!A202&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F15','7');</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B203&amp;"','"&amp;simpsons_guest_stars!C203&amp;"','"&amp;simpsons_guest_stars!A203&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Lau','3F17','7');</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B204&amp;"','"&amp;simpsons_guest_stars!C204&amp;"','"&amp;simpsons_guest_stars!A204&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','3F18','7');</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B205&amp;"','"&amp;simpsons_guest_stars!C205&amp;"','"&amp;simpsons_guest_stars!A205&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','3F20','7');</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B206&amp;"','"&amp;simpsons_guest_stars!C206&amp;"','"&amp;simpsons_guest_stars!A206&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cypress Hill','3F21','7');</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B207&amp;"','"&amp;simpsons_guest_stars!C207&amp;"','"&amp;simpsons_guest_stars!A207&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Peter Frampton','3F21','7');</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B208&amp;"','"&amp;simpsons_guest_stars!C208&amp;"','"&amp;simpsons_guest_stars!A208&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('The Smashing Pumpkins','3F21','7');</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B209&amp;"','"&amp;simpsons_guest_stars!C209&amp;"','"&amp;simpsons_guest_stars!A209&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sonic Youth','3F21','7');</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B210&amp;"','"&amp;simpsons_guest_stars!C210&amp;"','"&amp;simpsons_guest_stars!A210&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Christina Ricci','3F22','7');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B211&amp;"','"&amp;simpsons_guest_stars!C211&amp;"','"&amp;simpsons_guest_stars!A211&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','4F02','8');</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B212&amp;"','"&amp;simpsons_guest_stars!C212&amp;"','"&amp;simpsons_guest_stars!A212&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','3F23','8');</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B213&amp;"','"&amp;simpsons_guest_stars!C213&amp;"','"&amp;simpsons_guest_stars!A213&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sally Stevens','3F23','8');</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B214&amp;"','"&amp;simpsons_guest_stars!C214&amp;"','"&amp;simpsons_guest_stars!A214&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Buffer','4F03','8');</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B215&amp;"','"&amp;simpsons_guest_stars!C215&amp;"','"&amp;simpsons_guest_stars!A215&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sally Stevens','4F03','8');</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B216&amp;"','"&amp;simpsons_guest_stars!C216&amp;"','"&amp;simpsons_guest_stars!A216&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Winfield','4F03','8');</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B217&amp;"','"&amp;simpsons_guest_stars!C217&amp;"','"&amp;simpsons_guest_stars!A217&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rodney Dangerfield','4F05','8');</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B218&amp;"','"&amp;simpsons_guest_stars!C218&amp;"','"&amp;simpsons_guest_stars!A218&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','4F07','8');</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B219&amp;"','"&amp;simpsons_guest_stars!C219&amp;"','"&amp;simpsons_guest_stars!A219&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Johnny Cash','3F24','8');</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B220&amp;"','"&amp;simpsons_guest_stars!C220&amp;"','"&amp;simpsons_guest_stars!A220&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gillian Anderson','3G01','8');</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B221&amp;"','"&amp;simpsons_guest_stars!C221&amp;"','"&amp;simpsons_guest_stars!A221&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Duchovny','3G01','8');</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B222&amp;"','"&amp;simpsons_guest_stars!C222&amp;"','"&amp;simpsons_guest_stars!A222&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Leonard Nimoy','3G01','8');</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B223&amp;"','"&amp;simpsons_guest_stars!C223&amp;"','"&amp;simpsons_guest_stars!A223&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','4F08','8');</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B224&amp;"','"&amp;simpsons_guest_stars!C224&amp;"','"&amp;simpsons_guest_stars!A224&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack Lemmon','4F08','8');</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B225&amp;"','"&amp;simpsons_guest_stars!C225&amp;"','"&amp;simpsons_guest_stars!A225&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','4F12','8');</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B226&amp;"','"&amp;simpsons_guest_stars!C226&amp;"','"&amp;simpsons_guest_stars!A226&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alex Rocco','4F12','8');</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B227&amp;"','"&amp;simpsons_guest_stars!C227&amp;"','"&amp;simpsons_guest_stars!A227&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Waters','4F11','8');</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B228&amp;"','"&amp;simpsons_guest_stars!C228&amp;"','"&amp;simpsons_guest_stars!A228&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','4F14','8');</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B229&amp;"','"&amp;simpsons_guest_stars!C229&amp;"','"&amp;simpsons_guest_stars!A229&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Hyde Pierce','4F14','8');</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B230&amp;"','"&amp;simpsons_guest_stars!C230&amp;"','"&amp;simpsons_guest_stars!A230&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','4F15','8');</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B231&amp;"','"&amp;simpsons_guest_stars!C231&amp;"','"&amp;simpsons_guest_stars!A231&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dave Thomas','4F15','8');</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B232&amp;"','"&amp;simpsons_guest_stars!C232&amp;"','"&amp;simpsons_guest_stars!A232&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','4F16','8');</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B233&amp;"','"&amp;simpsons_guest_stars!C233&amp;"','"&amp;simpsons_guest_stars!A233&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bret Hart','4F17','8');</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B234&amp;"','"&amp;simpsons_guest_stars!C234&amp;"','"&amp;simpsons_guest_stars!A234&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Denice Kumagai','4F18','8');</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B235&amp;"','"&amp;simpsons_guest_stars!C235&amp;"','"&amp;simpsons_guest_stars!A235&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Karen Maruyama','4F18','8');</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B236&amp;"','"&amp;simpsons_guest_stars!C236&amp;"','"&amp;simpsons_guest_stars!A236&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sab Shimono','4F18','8');</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B237&amp;"','"&amp;simpsons_guest_stars!C237&amp;"','"&amp;simpsons_guest_stars!A237&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gedde Watanabe','4F18','8');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B238&amp;"','"&amp;simpsons_guest_stars!C238&amp;"','"&amp;simpsons_guest_stars!A238&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','4F18','8');</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B239&amp;"','"&amp;simpsons_guest_stars!C239&amp;"','"&amp;simpsons_guest_stars!A239&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','4F19','8');</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B240&amp;"','"&amp;simpsons_guest_stars!C240&amp;"','"&amp;simpsons_guest_stars!A240&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tim Conway','4F20','8');</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B241&amp;"','"&amp;simpsons_guest_stars!C241&amp;"','"&amp;simpsons_guest_stars!A241&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','4F20','8');</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B242&amp;"','"&amp;simpsons_guest_stars!C242&amp;"','"&amp;simpsons_guest_stars!A242&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gailard Sartain','4F20','8');</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B243&amp;"','"&amp;simpsons_guest_stars!C243&amp;"','"&amp;simpsons_guest_stars!A243&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Willem Dafoe','4F19','8');</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B244&amp;"','"&amp;simpsons_guest_stars!C244&amp;"','"&amp;simpsons_guest_stars!A244&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Dees','4F22','9');</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B245&amp;"','"&amp;simpsons_guest_stars!C245&amp;"','"&amp;simpsons_guest_stars!A245&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joan Kenley','4F22','9');</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B246&amp;"','"&amp;simpsons_guest_stars!C246&amp;"','"&amp;simpsons_guest_stars!A246&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Martin Sheen','4F23','9');</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B247&amp;"','"&amp;simpsons_guest_stars!C247&amp;"','"&amp;simpsons_guest_stars!A247&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fyvush Finkel','3G02','9');</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B248&amp;"','"&amp;simpsons_guest_stars!C248&amp;"','"&amp;simpsons_guest_stars!A248&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Roy Firestone','5F03','9');</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B249&amp;"','"&amp;simpsons_guest_stars!C249&amp;"','"&amp;simpsons_guest_stars!A249&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mike Judge','5F03','9');</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B250&amp;"','"&amp;simpsons_guest_stars!C250&amp;"','"&amp;simpsons_guest_stars!A250&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Namath','5F03','9');</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B251&amp;"','"&amp;simpsons_guest_stars!C251&amp;"','"&amp;simpsons_guest_stars!A251&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jan Hooks','5F04','9');</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B252&amp;"','"&amp;simpsons_guest_stars!C252&amp;"','"&amp;simpsons_guest_stars!A252&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Andrea Martin','5F04','9');</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B253&amp;"','"&amp;simpsons_guest_stars!C253&amp;"','"&amp;simpsons_guest_stars!A253&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Jay Gould','5F05','9');</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B254&amp;"','"&amp;simpsons_guest_stars!C254&amp;"','"&amp;simpsons_guest_stars!A254&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','5F05','9');</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B255&amp;"','"&amp;simpsons_guest_stars!C255&amp;"','"&amp;simpsons_guest_stars!A255&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','5F06','9');</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B256&amp;"','"&amp;simpsons_guest_stars!C256&amp;"','"&amp;simpsons_guest_stars!A256&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alex Trebek','5F07','9');</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B257&amp;"','"&amp;simpsons_guest_stars!C257&amp;"','"&amp;simpsons_guest_stars!A257&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Varney','5F08','9');</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B258&amp;"','"&amp;simpsons_guest_stars!C258&amp;"','"&amp;simpsons_guest_stars!A258&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','5F11','9');</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B259&amp;"','"&amp;simpsons_guest_stars!C259&amp;"','"&amp;simpsons_guest_stars!A259&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Earl Jones','5F11','9');</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B260&amp;"','"&amp;simpsons_guest_stars!C260&amp;"','"&amp;simpsons_guest_stars!A260&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack Ong','5F11','9');</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B261&amp;"','"&amp;simpsons_guest_stars!C261&amp;"','"&amp;simpsons_guest_stars!A261&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bruce Baum','5F10','9');</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B262&amp;"','"&amp;simpsons_guest_stars!C262&amp;"','"&amp;simpsons_guest_stars!A262&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Janeane Garofalo','5F10','9');</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B263&amp;"','"&amp;simpsons_guest_stars!C263&amp;"','"&amp;simpsons_guest_stars!A263&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bobcat Goldthwait','5F10','9');</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B264&amp;"','"&amp;simpsons_guest_stars!C264&amp;"','"&amp;simpsons_guest_stars!A264&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jay Leno','5F10','9');</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B265&amp;"','"&amp;simpsons_guest_stars!C265&amp;"','"&amp;simpsons_guest_stars!A265&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Hank Williams Jr.','5F10','9');</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B266&amp;"','"&amp;simpsons_guest_stars!C266&amp;"','"&amp;simpsons_guest_stars!A266&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steven Wright','5F10','9');</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B267&amp;"','"&amp;simpsons_guest_stars!C267&amp;"','"&amp;simpsons_guest_stars!A267&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Helen Hunt','5F12','9');</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B268&amp;"','"&amp;simpsons_guest_stars!C268&amp;"','"&amp;simpsons_guest_stars!A268&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','4F24','9');</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B269&amp;"','"&amp;simpsons_guest_stars!C269&amp;"','"&amp;simpsons_guest_stars!A269&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','5F13','9');</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B270&amp;"','"&amp;simpsons_guest_stars!C270&amp;"','"&amp;simpsons_guest_stars!A270&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Carrington','3G04','9');</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B271&amp;"','"&amp;simpsons_guest_stars!C271&amp;"','"&amp;simpsons_guest_stars!A271&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bob Denver','3G04','9');</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B272&amp;"','"&amp;simpsons_guest_stars!C272&amp;"','"&amp;simpsons_guest_stars!A272&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rod Steiger','3G04','9');</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B273&amp;"','"&amp;simpsons_guest_stars!C273&amp;"','"&amp;simpsons_guest_stars!A273&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Winfield','5F14','9');</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B274&amp;"','"&amp;simpsons_guest_stars!C274&amp;"','"&amp;simpsons_guest_stars!A274&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Martin','5F09','9');</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B275&amp;"','"&amp;simpsons_guest_stars!C275&amp;"','"&amp;simpsons_guest_stars!A275&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul McGuinness','5F09','9');</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B276&amp;"','"&amp;simpsons_guest_stars!C276&amp;"','"&amp;simpsons_guest_stars!A276&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Susie Smith','5F09','9');</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B277&amp;"','"&amp;simpsons_guest_stars!C277&amp;"','"&amp;simpsons_guest_stars!A277&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('U2','5F09','9');</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B278&amp;"','"&amp;simpsons_guest_stars!C278&amp;"','"&amp;simpsons_guest_stars!A278&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brendan Fraser','5F16','9');</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B279&amp;"','"&amp;simpsons_guest_stars!C279&amp;"','"&amp;simpsons_guest_stars!A279&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steven Weber','5F16','9');</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B280&amp;"','"&amp;simpsons_guest_stars!C280&amp;"','"&amp;simpsons_guest_stars!A280&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lisa Kudrow','5F20','10');</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B281&amp;"','"&amp;simpsons_guest_stars!C281&amp;"','"&amp;simpsons_guest_stars!A281&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('William Daniels','5F21','10');</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B282&amp;"','"&amp;simpsons_guest_stars!C282&amp;"','"&amp;simpsons_guest_stars!A282&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil Hartman','5F22','10');</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B283&amp;"','"&amp;simpsons_guest_stars!C283&amp;"','"&amp;simpsons_guest_stars!A283&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Englund','AABF01','10');</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B284&amp;"','"&amp;simpsons_guest_stars!C284&amp;"','"&amp;simpsons_guest_stars!A284&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kathie Lee Gifford','AABF01','10');</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B285&amp;"','"&amp;simpsons_guest_stars!C285&amp;"','"&amp;simpsons_guest_stars!A285&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ed McMahon','AABF01','10');</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B286&amp;"','"&amp;simpsons_guest_stars!C286&amp;"','"&amp;simpsons_guest_stars!A286&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Regis Philbin','AABF01','10');</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B287&amp;"','"&amp;simpsons_guest_stars!C287&amp;"','"&amp;simpsons_guest_stars!A287&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jerry Springer','AABF01','10');</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B288&amp;"','"&amp;simpsons_guest_stars!C288&amp;"','"&amp;simpsons_guest_stars!A288&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alec Baldwin','5F19','10');</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B289&amp;"','"&amp;simpsons_guest_stars!C289&amp;"','"&amp;simpsons_guest_stars!A289&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kim Basinger','5F19','10');</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B290&amp;"','"&amp;simpsons_guest_stars!C290&amp;"','"&amp;simpsons_guest_stars!A290&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brian Grazer','5F19','10');</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B291&amp;"','"&amp;simpsons_guest_stars!C291&amp;"','"&amp;simpsons_guest_stars!A291&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ron Howard','5F19','10');</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B292&amp;"','"&amp;simpsons_guest_stars!C292&amp;"','"&amp;simpsons_guest_stars!A292&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Carlin','AABF02','10');</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B293&amp;"','"&amp;simpsons_guest_stars!C293&amp;"','"&amp;simpsons_guest_stars!A293&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Martin Mull','AABF02','10');</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B294&amp;"','"&amp;simpsons_guest_stars!C294&amp;"','"&amp;simpsons_guest_stars!A294&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Yo La Tengo','AABF02','10');</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B295&amp;"','"&amp;simpsons_guest_stars!C295&amp;"','"&amp;simpsons_guest_stars!A295&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mark Hamill','AABF05','10');</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B296&amp;"','"&amp;simpsons_guest_stars!C296&amp;"','"&amp;simpsons_guest_stars!A296&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','AABF05','10');</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B297&amp;"','"&amp;simpsons_guest_stars!C297&amp;"','"&amp;simpsons_guest_stars!A297&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dick Tufeld','AABF05','10');</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B298&amp;"','"&amp;simpsons_guest_stars!C298&amp;"','"&amp;simpsons_guest_stars!A298&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('The Moody Blues','AABF06','10');</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B299&amp;"','"&amp;simpsons_guest_stars!C299&amp;"','"&amp;simpsons_guest_stars!A299&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cyndi Lauper','AABF07','10');</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B300&amp;"','"&amp;simpsons_guest_stars!C300&amp;"','"&amp;simpsons_guest_stars!A300&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Troy Aikman','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B301&amp;"','"&amp;simpsons_guest_stars!C301&amp;"','"&amp;simpsons_guest_stars!A301&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rosey Grier','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B302&amp;"','"&amp;simpsons_guest_stars!C302&amp;"','"&amp;simpsons_guest_stars!A302&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Madden','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B303&amp;"','"&amp;simpsons_guest_stars!C303&amp;"','"&amp;simpsons_guest_stars!A303&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dan Marino','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B304&amp;"','"&amp;simpsons_guest_stars!C304&amp;"','"&amp;simpsons_guest_stars!A304&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rupert Murdoch','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B305&amp;"','"&amp;simpsons_guest_stars!C305&amp;"','"&amp;simpsons_guest_stars!A305&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dolly Parton','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B306&amp;"','"&amp;simpsons_guest_stars!C306&amp;"','"&amp;simpsons_guest_stars!A306&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pat Summerall','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B307&amp;"','"&amp;simpsons_guest_stars!C307&amp;"','"&amp;simpsons_guest_stars!A307&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fred Willard','AABF08','10');</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B308&amp;"','"&amp;simpsons_guest_stars!C308&amp;"','"&amp;simpsons_guest_stars!A308&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ed Begley Jr.','AABF09','10');</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B309&amp;"','"&amp;simpsons_guest_stars!C309&amp;"','"&amp;simpsons_guest_stars!A309&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jan Hooks','AABF11','10');</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B310&amp;"','"&amp;simpsons_guest_stars!C310&amp;"','"&amp;simpsons_guest_stars!A310&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elton John','AABF11','10');</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B311&amp;"','"&amp;simpsons_guest_stars!C311&amp;"','"&amp;simpsons_guest_stars!A311&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Kassir','AABF10','10');</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B312&amp;"','"&amp;simpsons_guest_stars!C312&amp;"','"&amp;simpsons_guest_stars!A312&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jasper Johns','AABF15','10');</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B313&amp;"','"&amp;simpsons_guest_stars!C313&amp;"','"&amp;simpsons_guest_stars!A313&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Isabella Rossellini','AABF15','10');</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B314&amp;"','"&amp;simpsons_guest_stars!C314&amp;"','"&amp;simpsons_guest_stars!A314&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack LaLanne','AABF16','10');</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B315&amp;"','"&amp;simpsons_guest_stars!C315&amp;"','"&amp;simpsons_guest_stars!A315&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('NRBQ','AABF16','10');</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B316&amp;"','"&amp;simpsons_guest_stars!C316&amp;"','"&amp;simpsons_guest_stars!A316&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael McKean','AABF17','10');</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B317&amp;"','"&amp;simpsons_guest_stars!C317&amp;"','"&amp;simpsons_guest_stars!A317&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Hawking','AABF18','10');</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B318&amp;"','"&amp;simpsons_guest_stars!C318&amp;"','"&amp;simpsons_guest_stars!A318&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Denice Kumagai','AABF20','10');</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B319&amp;"','"&amp;simpsons_guest_stars!C319&amp;"','"&amp;simpsons_guest_stars!A319&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Karen Maruyama','AABF20','10');</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B320&amp;"','"&amp;simpsons_guest_stars!C320&amp;"','"&amp;simpsons_guest_stars!A320&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Takei','AABF20','10');</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B321&amp;"','"&amp;simpsons_guest_stars!C321&amp;"','"&amp;simpsons_guest_stars!A321&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gedde Watanabe','AABF20','10');</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B322&amp;"','"&amp;simpsons_guest_stars!C322&amp;"','"&amp;simpsons_guest_stars!A322&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Keone Young','AABF20','10');</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B323&amp;"','"&amp;simpsons_guest_stars!C323&amp;"','"&amp;simpsons_guest_stars!A323&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack Burns','AABF23','11');</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B324&amp;"','"&amp;simpsons_guest_stars!C324&amp;"','"&amp;simpsons_guest_stars!A324&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mel Gibson','AABF23','11');</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B325&amp;"','"&amp;simpsons_guest_stars!C325&amp;"','"&amp;simpsons_guest_stars!A325&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mark McGwire','AABF22','11');</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B326&amp;"','"&amp;simpsons_guest_stars!C326&amp;"','"&amp;simpsons_guest_stars!A326&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Edward Asner','AABF21','11');</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B327&amp;"','"&amp;simpsons_guest_stars!C327&amp;"','"&amp;simpsons_guest_stars!A327&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Arnold','BABF01','11');</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B328&amp;"','"&amp;simpsons_guest_stars!C328&amp;"','"&amp;simpsons_guest_stars!A328&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dick Clark','BABF01','11');</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B329&amp;"','"&amp;simpsons_guest_stars!C329&amp;"','"&amp;simpsons_guest_stars!A329&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lucy Lawless','BABF01','11');</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B330&amp;"','"&amp;simpsons_guest_stars!C330&amp;"','"&amp;simpsons_guest_stars!A330&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','BABF01','11');</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B331&amp;"','"&amp;simpsons_guest_stars!C331&amp;"','"&amp;simpsons_guest_stars!A331&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('The B-52's','AABF19','11');</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B332&amp;"','"&amp;simpsons_guest_stars!C332&amp;"','"&amp;simpsons_guest_stars!A332&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','AABF19','11');</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B333&amp;"','"&amp;simpsons_guest_stars!C333&amp;"','"&amp;simpsons_guest_stars!A333&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ron Howard','BABF02','11');</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B334&amp;"','"&amp;simpsons_guest_stars!C334&amp;"','"&amp;simpsons_guest_stars!A334&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Penn Jillette','BABF02','11');</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B335&amp;"','"&amp;simpsons_guest_stars!C335&amp;"','"&amp;simpsons_guest_stars!A335&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pat O'Brien','BABF02','11');</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B336&amp;"','"&amp;simpsons_guest_stars!C336&amp;"','"&amp;simpsons_guest_stars!A336&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nancy O'Dell','BABF02','11');</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B337&amp;"','"&amp;simpsons_guest_stars!C337&amp;"','"&amp;simpsons_guest_stars!A337&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Teller','BABF02','11');</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B338&amp;"','"&amp;simpsons_guest_stars!C338&amp;"','"&amp;simpsons_guest_stars!A338&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jan Hooks','BABF03','11');</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B339&amp;"','"&amp;simpsons_guest_stars!C339&amp;"','"&amp;simpsons_guest_stars!A339&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Garry Marshall','BABF03','11');</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B340&amp;"','"&amp;simpsons_guest_stars!C340&amp;"','"&amp;simpsons_guest_stars!A340&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Butch Patrick','BABF03','11');</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B341&amp;"','"&amp;simpsons_guest_stars!C341&amp;"','"&amp;simpsons_guest_stars!A341&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','BABF03','11');</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B342&amp;"','"&amp;simpsons_guest_stars!C342&amp;"','"&amp;simpsons_guest_stars!A342&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Goodman','BABF05','11');</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B343&amp;"','"&amp;simpsons_guest_stars!C343&amp;"','"&amp;simpsons_guest_stars!A343&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jan Hooks','BABF05','11');</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B344&amp;"','"&amp;simpsons_guest_stars!C344&amp;"','"&amp;simpsons_guest_stars!A344&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jay North','BABF05','11');</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B345&amp;"','"&amp;simpsons_guest_stars!C345&amp;"','"&amp;simpsons_guest_stars!A345&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('NRBQ','BABF05','11');</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B346&amp;"','"&amp;simpsons_guest_stars!C346&amp;"','"&amp;simpsons_guest_stars!A346&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Henry Winkler','BABF05','11');</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B347&amp;"','"&amp;simpsons_guest_stars!C347&amp;"','"&amp;simpsons_guest_stars!A347&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Clarence Clemons','BABF07','11');</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B348&amp;"','"&amp;simpsons_guest_stars!C348&amp;"','"&amp;simpsons_guest_stars!A348&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gary Coleman','BABF07','11');</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B349&amp;"','"&amp;simpsons_guest_stars!C349&amp;"','"&amp;simpsons_guest_stars!A349&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','BABF07','11');</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B350&amp;"','"&amp;simpsons_guest_stars!C350&amp;"','"&amp;simpsons_guest_stars!A350&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tim Robbins','BABF07','11');</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B351&amp;"','"&amp;simpsons_guest_stars!C351&amp;"','"&amp;simpsons_guest_stars!A351&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elwood Edwards','BABF04','11');</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B352&amp;"','"&amp;simpsons_guest_stars!C352&amp;"','"&amp;simpsons_guest_stars!A352&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Don Cheadle','BABF06','11');</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B353&amp;"','"&amp;simpsons_guest_stars!C353&amp;"','"&amp;simpsons_guest_stars!A353&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','BABF06','11');</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B354&amp;"','"&amp;simpsons_guest_stars!C354&amp;"','"&amp;simpsons_guest_stars!A354&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Britney Spears','BABF08','11');</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B355&amp;"','"&amp;simpsons_guest_stars!C355&amp;"','"&amp;simpsons_guest_stars!A355&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Randy Bachman','BABF09','11');</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B356&amp;"','"&amp;simpsons_guest_stars!C356&amp;"','"&amp;simpsons_guest_stars!A356&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Cummings','BABF09','11');</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B357&amp;"','"&amp;simpsons_guest_stars!C357&amp;"','"&amp;simpsons_guest_stars!A357&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Trevor Denman','BABF09','11');</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B358&amp;"','"&amp;simpsons_guest_stars!C358&amp;"','"&amp;simpsons_guest_stars!A358&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fred Turner','BABF09','11');</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B359&amp;"','"&amp;simpsons_guest_stars!C359&amp;"','"&amp;simpsons_guest_stars!A359&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Shawn Colvin','BABF10','11');</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B360&amp;"','"&amp;simpsons_guest_stars!C360&amp;"','"&amp;simpsons_guest_stars!A360&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','BABF10','11');</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B361&amp;"','"&amp;simpsons_guest_stars!C361&amp;"','"&amp;simpsons_guest_stars!A361&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Betty White','BABF11','11');</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B362&amp;"','"&amp;simpsons_guest_stars!C362&amp;"','"&amp;simpsons_guest_stars!A362&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Diedrich Bader','BABF16','11');</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B363&amp;"','"&amp;simpsons_guest_stars!C363&amp;"','"&amp;simpsons_guest_stars!A363&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe C.','BABF16','11');</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B364&amp;"','"&amp;simpsons_guest_stars!C364&amp;"','"&amp;simpsons_guest_stars!A364&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Evans','BABF16','11');</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B365&amp;"','"&amp;simpsons_guest_stars!C365&amp;"','"&amp;simpsons_guest_stars!A365&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kid Rock','BABF16','11');</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B366&amp;"','"&amp;simpsons_guest_stars!C366&amp;"','"&amp;simpsons_guest_stars!A366&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Charlie Rose','BABF16','11');</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B367&amp;"','"&amp;simpsons_guest_stars!C367&amp;"','"&amp;simpsons_guest_stars!A367&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','BABF15','11');</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B368&amp;"','"&amp;simpsons_guest_stars!C368&amp;"','"&amp;simpsons_guest_stars!A368&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Parker Posey','BABF18','11');</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B369&amp;"','"&amp;simpsons_guest_stars!C369&amp;"','"&amp;simpsons_guest_stars!A369&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Marc Wilmore','BABF18','11');</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B370&amp;"','"&amp;simpsons_guest_stars!C370&amp;"','"&amp;simpsons_guest_stars!A370&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Forbes','BABF19','11');</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B371&amp;"','"&amp;simpsons_guest_stars!C371&amp;"','"&amp;simpsons_guest_stars!A371&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Willie Nelson','BABF19','11');</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B372&amp;"','"&amp;simpsons_guest_stars!C372&amp;"','"&amp;simpsons_guest_stars!A372&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gary Coleman','BABF20','12');</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B373&amp;"','"&amp;simpsons_guest_stars!C373&amp;"','"&amp;simpsons_guest_stars!A373&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','BABF20','12');</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B374&amp;"','"&amp;simpsons_guest_stars!C374&amp;"','"&amp;simpsons_guest_stars!A374&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('The Who','BABF20','12');</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B375&amp;"','"&amp;simpsons_guest_stars!C375&amp;"','"&amp;simpsons_guest_stars!A375&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Drew Barrymore','BABF17','12');</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B376&amp;"','"&amp;simpsons_guest_stars!C376&amp;"','"&amp;simpsons_guest_stars!A376&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen King','BABF17','12');</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B377&amp;"','"&amp;simpsons_guest_stars!C377&amp;"','"&amp;simpsons_guest_stars!A377&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','BABF17','12');</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B378&amp;"','"&amp;simpsons_guest_stars!C378&amp;"','"&amp;simpsons_guest_stars!A378&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jay Mohr','BABF17','12');</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B379&amp;"','"&amp;simpsons_guest_stars!C379&amp;"','"&amp;simpsons_guest_stars!A379&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Amy Tan','BABF17','12');</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B380&amp;"','"&amp;simpsons_guest_stars!C380&amp;"','"&amp;simpsons_guest_stars!A380&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Updike','BABF17','12');</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B381&amp;"','"&amp;simpsons_guest_stars!C381&amp;"','"&amp;simpsons_guest_stars!A381&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joshua Jackson','CABF01','12');</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B382&amp;"','"&amp;simpsons_guest_stars!C382&amp;"','"&amp;simpsons_guest_stars!A382&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Leeza Gibbons','CABF04','12');</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B383&amp;"','"&amp;simpsons_guest_stars!C383&amp;"','"&amp;simpsons_guest_stars!A383&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Patrick McGoohan','CABF02','12');</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B384&amp;"','"&amp;simpsons_guest_stars!C384&amp;"','"&amp;simpsons_guest_stars!A384&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Edward Norton','CABF03','12');</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B385&amp;"','"&amp;simpsons_guest_stars!C385&amp;"','"&amp;simpsons_guest_stars!A385&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Keaton','CABF05','12');</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B386&amp;"','"&amp;simpsons_guest_stars!C386&amp;"','"&amp;simpsons_guest_stars!A386&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Charles Napier','CABF05','12');</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B387&amp;"','"&amp;simpsons_guest_stars!C387&amp;"','"&amp;simpsons_guest_stars!A387&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Schimmel','CABF05','12');</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B388&amp;"','"&amp;simpsons_guest_stars!C388&amp;"','"&amp;simpsons_guest_stars!A388&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bruce Vilanch','CABF05','12');</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B389&amp;"','"&amp;simpsons_guest_stars!C389&amp;"','"&amp;simpsons_guest_stars!A389&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Savini','CABF08','12');</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B390&amp;"','"&amp;simpsons_guest_stars!C390&amp;"','"&amp;simpsons_guest_stars!A390&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Andre Agassi','CABF07','12');</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B391&amp;"','"&amp;simpsons_guest_stars!C391&amp;"','"&amp;simpsons_guest_stars!A391&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pete Sampras','CABF07','12');</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B392&amp;"','"&amp;simpsons_guest_stars!C392&amp;"','"&amp;simpsons_guest_stars!A392&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Serena Williams','CABF07','12');</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B393&amp;"','"&amp;simpsons_guest_stars!C393&amp;"','"&amp;simpsons_guest_stars!A393&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Venus Williams','CABF07','12');</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B394&amp;"','"&amp;simpsons_guest_stars!C394&amp;"','"&amp;simpsons_guest_stars!A394&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gary Coleman','CABF10','12');</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B395&amp;"','"&amp;simpsons_guest_stars!C395&amp;"','"&amp;simpsons_guest_stars!A395&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','CABF10','12');</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B396&amp;"','"&amp;simpsons_guest_stars!C396&amp;"','"&amp;simpsons_guest_stars!A396&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES (''N Sync','CABF12','12');</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B397&amp;"','"&amp;simpsons_guest_stars!C397&amp;"','"&amp;simpsons_guest_stars!A397&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stacy Keach','CABF09','12');</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B398&amp;"','"&amp;simpsons_guest_stars!C398&amp;"','"&amp;simpsons_guest_stars!A398&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kathy Griffin','CABF11','12');</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B399&amp;"','"&amp;simpsons_guest_stars!C399&amp;"','"&amp;simpsons_guest_stars!A399&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jan Hooks','CABF11','12');</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B400&amp;"','"&amp;simpsons_guest_stars!C400&amp;"','"&amp;simpsons_guest_stars!A400&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','CABF13','12');</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B401&amp;"','"&amp;simpsons_guest_stars!C401&amp;"','"&amp;simpsons_guest_stars!A401&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','CABF14','12');</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B402&amp;"','"&amp;simpsons_guest_stars!C402&amp;"','"&amp;simpsons_guest_stars!A402&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frankie Muniz','CABF14','12');</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B403&amp;"','"&amp;simpsons_guest_stars!C403&amp;"','"&amp;simpsons_guest_stars!A403&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Shawn Colvin','CABF15','12');</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B404&amp;"','"&amp;simpsons_guest_stars!C404&amp;"','"&amp;simpsons_guest_stars!A404&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','CABF17','12');</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B405&amp;"','"&amp;simpsons_guest_stars!C405&amp;"','"&amp;simpsons_guest_stars!A405&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pierce Brosnan','CABF19','13');</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B406&amp;"','"&amp;simpsons_guest_stars!C406&amp;"','"&amp;simpsons_guest_stars!A406&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Matthew Perry','CABF19','13');</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B407&amp;"','"&amp;simpsons_guest_stars!C407&amp;"','"&amp;simpsons_guest_stars!A407&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jess Harnell','CABF22','13');</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B408&amp;"','"&amp;simpsons_guest_stars!C408&amp;"','"&amp;simpsons_guest_stars!A408&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','CABF22','13');</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B409&amp;"','"&amp;simpsons_guest_stars!C409&amp;"','"&amp;simpsons_guest_stars!A409&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('R.E.M.','CABF20','13');</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B410&amp;"','"&amp;simpsons_guest_stars!C410&amp;"','"&amp;simpsons_guest_stars!A410&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Julia Louis-Dreyfus','CABF18','13');</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B411&amp;"','"&amp;simpsons_guest_stars!C411&amp;"','"&amp;simpsons_guest_stars!A411&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Takei','CABF18','13');</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B412&amp;"','"&amp;simpsons_guest_stars!C412&amp;"','"&amp;simpsons_guest_stars!A412&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','CABF21','13');</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B413&amp;"','"&amp;simpsons_guest_stars!C413&amp;"','"&amp;simpsons_guest_stars!A413&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Newman','CABF21','13');</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B414&amp;"','"&amp;simpsons_guest_stars!C414&amp;"','"&amp;simpsons_guest_stars!A414&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Judith Owen','CABF21','13');</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B415&amp;"','"&amp;simpsons_guest_stars!C415&amp;"','"&amp;simpsons_guest_stars!A415&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Richard Gere','DABF02','13');</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B416&amp;"','"&amp;simpsons_guest_stars!C416&amp;"','"&amp;simpsons_guest_stars!A416&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','DABF01','13');</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B417&amp;"','"&amp;simpsons_guest_stars!C417&amp;"','"&amp;simpsons_guest_stars!A417&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Delroy Lindo','DABF01','13');</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B418&amp;"','"&amp;simpsons_guest_stars!C418&amp;"','"&amp;simpsons_guest_stars!A418&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ben Stiller','DABF03','13');</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B419&amp;"','"&amp;simpsons_guest_stars!C419&amp;"','"&amp;simpsons_guest_stars!A419&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dana Gould','DABF05','13');</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B420&amp;"','"&amp;simpsons_guest_stars!C420&amp;"','"&amp;simpsons_guest_stars!A420&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Kassir','DABF05','13');</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B421&amp;"','"&amp;simpsons_guest_stars!C421&amp;"','"&amp;simpsons_guest_stars!A421&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','DABF04','13');</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B422&amp;"','"&amp;simpsons_guest_stars!C422&amp;"','"&amp;simpsons_guest_stars!A422&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Wolfgang Puck','DABF06','13');</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B423&amp;"','"&amp;simpsons_guest_stars!C423&amp;"','"&amp;simpsons_guest_stars!A423&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Reese Witherspoon','DABF06','13');</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B424&amp;"','"&amp;simpsons_guest_stars!C424&amp;"','"&amp;simpsons_guest_stars!A424&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dennis Weaver','DABF07','13');</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B425&amp;"','"&amp;simpsons_guest_stars!C425&amp;"','"&amp;simpsons_guest_stars!A425&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','DABF07','13');</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B426&amp;"','"&amp;simpsons_guest_stars!C426&amp;"','"&amp;simpsons_guest_stars!A426&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Olympia Dukakis','DABF09','13');</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B427&amp;"','"&amp;simpsons_guest_stars!C427&amp;"','"&amp;simpsons_guest_stars!A427&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bill Saluga','DABF09','13');</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B428&amp;"','"&amp;simpsons_guest_stars!C428&amp;"','"&amp;simpsons_guest_stars!A428&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phish','DABF11','13');</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B429&amp;"','"&amp;simpsons_guest_stars!C429&amp;"','"&amp;simpsons_guest_stars!A429&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stan Lee','DABF13','13');</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B430&amp;"','"&amp;simpsons_guest_stars!C430&amp;"','"&amp;simpsons_guest_stars!A430&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Lipton','DABF14','13');</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B431&amp;"','"&amp;simpsons_guest_stars!C431&amp;"','"&amp;simpsons_guest_stars!A431&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Pinsky','DABF15','13');</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B432&amp;"','"&amp;simpsons_guest_stars!C432&amp;"','"&amp;simpsons_guest_stars!A432&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Carmen Electra','DABF16','13');</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B433&amp;"','"&amp;simpsons_guest_stars!C433&amp;"','"&amp;simpsons_guest_stars!A433&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frances Sternhagen','DABF16','13');</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B434&amp;"','"&amp;simpsons_guest_stars!C434&amp;"','"&amp;simpsons_guest_stars!A434&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','DABF17','13');</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B435&amp;"','"&amp;simpsons_guest_stars!C435&amp;"','"&amp;simpsons_guest_stars!A435&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elvis Costello','DABF16','14');</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B436&amp;"','"&amp;simpsons_guest_stars!C436&amp;"','"&amp;simpsons_guest_stars!A436&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mick Jagger','DABF16','14');</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B437&amp;"','"&amp;simpsons_guest_stars!C437&amp;"','"&amp;simpsons_guest_stars!A437&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lenny Kravitz','DABF16','14');</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B438&amp;"','"&amp;simpsons_guest_stars!C438&amp;"','"&amp;simpsons_guest_stars!A438&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Petty','DABF16','14');</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B439&amp;"','"&amp;simpsons_guest_stars!C439&amp;"','"&amp;simpsons_guest_stars!A439&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Keith Richards','DABF16','14');</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B440&amp;"','"&amp;simpsons_guest_stars!C440&amp;"','"&amp;simpsons_guest_stars!A440&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brian Setzer','DABF16','14');</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B441&amp;"','"&amp;simpsons_guest_stars!C441&amp;"','"&amp;simpsons_guest_stars!A441&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tony Bennett','DABF20','14');</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B442&amp;"','"&amp;simpsons_guest_stars!C442&amp;"','"&amp;simpsons_guest_stars!A442&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Baha Men','DABF18','14');</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B443&amp;"','"&amp;simpsons_guest_stars!C443&amp;"','"&amp;simpsons_guest_stars!A443&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jan Hooks','DABF18','14');</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B444&amp;"','"&amp;simpsons_guest_stars!C444&amp;"','"&amp;simpsons_guest_stars!A444&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Burt Ward','DABF18','14');</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B445&amp;"','"&amp;simpsons_guest_stars!C445&amp;"','"&amp;simpsons_guest_stars!A445&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Adam West','DABF18','14');</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B446&amp;"','"&amp;simpsons_guest_stars!C446&amp;"','"&amp;simpsons_guest_stars!A446&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Larry Holmes','DABF21','14');</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B447&amp;"','"&amp;simpsons_guest_stars!C447&amp;"','"&amp;simpsons_guest_stars!A447&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Lander','DABF21','14');</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B448&amp;"','"&amp;simpsons_guest_stars!C448&amp;"','"&amp;simpsons_guest_stars!A448&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','EABF01','14');</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B449&amp;"','"&amp;simpsons_guest_stars!C449&amp;"','"&amp;simpsons_guest_stars!A449&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sally Stevens','EABF01','14');</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B450&amp;"','"&amp;simpsons_guest_stars!C450&amp;"','"&amp;simpsons_guest_stars!A450&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Little Richard','EABF02','14');</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B451&amp;"','"&amp;simpsons_guest_stars!C451&amp;"','"&amp;simpsons_guest_stars!A451&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elliott Gould','EABF03','14');</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B452&amp;"','"&amp;simpsons_guest_stars!C452&amp;"','"&amp;simpsons_guest_stars!A452&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pamela Reed','EABF04','14');</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B453&amp;"','"&amp;simpsons_guest_stars!C453&amp;"','"&amp;simpsons_guest_stars!A453&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lisa Leslie','EABF06','14');</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B454&amp;"','"&amp;simpsons_guest_stars!C454&amp;"','"&amp;simpsons_guest_stars!A454&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Blink-182','EABF05','14');</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B455&amp;"','"&amp;simpsons_guest_stars!C455&amp;"','"&amp;simpsons_guest_stars!A455&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tony Hawk','EABF05','14');</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B456&amp;"','"&amp;simpsons_guest_stars!C456&amp;"','"&amp;simpsons_guest_stars!A456&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','EABF05','14');</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B457&amp;"','"&amp;simpsons_guest_stars!C457&amp;"','"&amp;simpsons_guest_stars!A457&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Plimpton','EABF07','14');</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B458&amp;"','"&amp;simpsons_guest_stars!C458&amp;"','"&amp;simpsons_guest_stars!A458&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James L. Brooks','EABF08','14');</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B459&amp;"','"&amp;simpsons_guest_stars!C459&amp;"','"&amp;simpsons_guest_stars!A459&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Helen Fielding','EABF08','14');</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B460&amp;"','"&amp;simpsons_guest_stars!C460&amp;"','"&amp;simpsons_guest_stars!A460&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Marisa Tomei','EABF08','14');</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B461&amp;"','"&amp;simpsons_guest_stars!C461&amp;"','"&amp;simpsons_guest_stars!A461&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','EABF09','14');</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B462&amp;"','"&amp;simpsons_guest_stars!C462&amp;"','"&amp;simpsons_guest_stars!A462&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eric Idle','EABF11','14');</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B463&amp;"','"&amp;simpsons_guest_stars!C463&amp;"','"&amp;simpsons_guest_stars!A463&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','EABF11','14');</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B464&amp;"','"&amp;simpsons_guest_stars!C464&amp;"','"&amp;simpsons_guest_stars!A464&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ben Schatz','EABF12','14');</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B465&amp;"','"&amp;simpsons_guest_stars!C465&amp;"','"&amp;simpsons_guest_stars!A465&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Scott Thompson','EABF12','14');</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B466&amp;"','"&amp;simpsons_guest_stars!C466&amp;"','"&amp;simpsons_guest_stars!A466&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Weird Al Yankovic','EABF12','14');</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B467&amp;"','"&amp;simpsons_guest_stars!C467&amp;"','"&amp;simpsons_guest_stars!A467&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Byrne','EABF13','14');</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B468&amp;"','"&amp;simpsons_guest_stars!C468&amp;"','"&amp;simpsons_guest_stars!A468&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Andy Serkis','EABF13','14');</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B469&amp;"','"&amp;simpsons_guest_stars!C469&amp;"','"&amp;simpsons_guest_stars!A469&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jonathan Taylor Thomas','EABF13','14');</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B470&amp;"','"&amp;simpsons_guest_stars!C470&amp;"','"&amp;simpsons_guest_stars!A470&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stacy Keach','EABF14','14');</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B471&amp;"','"&amp;simpsons_guest_stars!C471&amp;"','"&amp;simpsons_guest_stars!A471&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Kassir','EABF14','14');</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B472&amp;"','"&amp;simpsons_guest_stars!C472&amp;"','"&amp;simpsons_guest_stars!A472&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackson Browne','EABF15','14');</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B473&amp;"','"&amp;simpsons_guest_stars!C473&amp;"','"&amp;simpsons_guest_stars!A473&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Buscemi','EABF15','14');</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B474&amp;"','"&amp;simpsons_guest_stars!C474&amp;"','"&amp;simpsons_guest_stars!A474&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','EABF15','14');</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B475&amp;"','"&amp;simpsons_guest_stars!C475&amp;"','"&amp;simpsons_guest_stars!A475&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','EABF17','14');</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B476&amp;"','"&amp;simpsons_guest_stars!C476&amp;"','"&amp;simpsons_guest_stars!A476&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Oscar De La Hoya','EABF21','15');</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B477&amp;"','"&amp;simpsons_guest_stars!C477&amp;"','"&amp;simpsons_guest_stars!A477&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jennifer Garner','EABF21','15');</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B478&amp;"','"&amp;simpsons_guest_stars!C478&amp;"','"&amp;simpsons_guest_stars!A478&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dudley R. Herschbach','EABF21','15');</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B479&amp;"','"&amp;simpsons_guest_stars!C479&amp;"','"&amp;simpsons_guest_stars!A479&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jerry Lewis','EABF21','15');</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B480&amp;"','"&amp;simpsons_guest_stars!C480&amp;"','"&amp;simpsons_guest_stars!A480&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','EABF18','15');</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B481&amp;"','"&amp;simpsons_guest_stars!C481&amp;"','"&amp;simpsons_guest_stars!A481&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Moore','EABF20','15');</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B482&amp;"','"&amp;simpsons_guest_stars!C482&amp;"','"&amp;simpsons_guest_stars!A482&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tony Blair','EABF22','15');</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B483&amp;"','"&amp;simpsons_guest_stars!C483&amp;"','"&amp;simpsons_guest_stars!A483&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Leeves','EABF22','15');</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B484&amp;"','"&amp;simpsons_guest_stars!C484&amp;"','"&amp;simpsons_guest_stars!A484&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Evan Marriott','EABF22','15');</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B485&amp;"','"&amp;simpsons_guest_stars!C485&amp;"','"&amp;simpsons_guest_stars!A485&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ian McKellen','EABF22','15');</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B486&amp;"','"&amp;simpsons_guest_stars!C486&amp;"','"&amp;simpsons_guest_stars!A486&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('J. K. Rowling','EABF22','15');</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B487&amp;"','"&amp;simpsons_guest_stars!C487&amp;"','"&amp;simpsons_guest_stars!A487&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Charles Napier','EABF19','15');</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B488&amp;"','"&amp;simpsons_guest_stars!C488&amp;"','"&amp;simpsons_guest_stars!A488&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','FABF01','15');</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B489&amp;"','"&amp;simpsons_guest_stars!C489&amp;"','"&amp;simpsons_guest_stars!A489&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mr. T','FABF01','15');</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B490&amp;"','"&amp;simpsons_guest_stars!C490&amp;"','"&amp;simpsons_guest_stars!A490&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Gilstrap','FABF02','15');</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B491&amp;"','"&amp;simpsons_guest_stars!C491&amp;"','"&amp;simpsons_guest_stars!A491&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Clancy','FABF05','15');</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B492&amp;"','"&amp;simpsons_guest_stars!C492&amp;"','"&amp;simpsons_guest_stars!A492&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ashley Olsen','FABF05','15');</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B493&amp;"','"&amp;simpsons_guest_stars!C493&amp;"','"&amp;simpsons_guest_stars!A493&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mary-Kate Olsen','FABF05','15');</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B494&amp;"','"&amp;simpsons_guest_stars!C494&amp;"','"&amp;simpsons_guest_stars!A494&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Thomas Pynchon','FABF05','15');</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B495&amp;"','"&amp;simpsons_guest_stars!C495&amp;"','"&amp;simpsons_guest_stars!A495&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nick Bakay','FABF07','15');</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B496&amp;"','"&amp;simpsons_guest_stars!C496&amp;"','"&amp;simpsons_guest_stars!A496&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('William Daniels','FABF07','15');</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B497&amp;"','"&amp;simpsons_guest_stars!C497&amp;"','"&amp;simpsons_guest_stars!A497&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Isabel Sanford','FABF07','15');</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B498&amp;"','"&amp;simpsons_guest_stars!C498&amp;"','"&amp;simpsons_guest_stars!A498&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dick Tufeld','FABF07','15');</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B499&amp;"','"&amp;simpsons_guest_stars!C499&amp;"','"&amp;simpsons_guest_stars!A499&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Simon Cowell','FABF09','15');</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B500&amp;"','"&amp;simpsons_guest_stars!C500&amp;"','"&amp;simpsons_guest_stars!A500&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','FABF08','15');</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B501&amp;"','"&amp;simpsons_guest_stars!C501&amp;"','"&amp;simpsons_guest_stars!A501&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brave Combo','FABF10','15');</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B502&amp;"','"&amp;simpsons_guest_stars!C502&amp;"','"&amp;simpsons_guest_stars!A502&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sarah Michelle Gellar','FABF11','15');</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B503&amp;"','"&amp;simpsons_guest_stars!C503&amp;"','"&amp;simpsons_guest_stars!A503&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','FABF11','15');</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B504&amp;"','"&amp;simpsons_guest_stars!C504&amp;"','"&amp;simpsons_guest_stars!A504&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Charles Napier','FABF11','15');</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B505&amp;"','"&amp;simpsons_guest_stars!C505&amp;"','"&amp;simpsons_guest_stars!A505&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Matt Groening','FABF12','15');</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B506&amp;"','"&amp;simpsons_guest_stars!C506&amp;"','"&amp;simpsons_guest_stars!A506&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mark Campbell','FABF15','15');</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B507&amp;"','"&amp;simpsons_guest_stars!C507&amp;"','"&amp;simpsons_guest_stars!A507&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nichelle Nichols','FABF15','15');</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B508&amp;"','"&amp;simpsons_guest_stars!C508&amp;"','"&amp;simpsons_guest_stars!A508&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Caan','FABF20','16');</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B509&amp;"','"&amp;simpsons_guest_stars!C509&amp;"','"&amp;simpsons_guest_stars!A509&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Thomas Pynchon','FABF20','16');</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B510&amp;"','"&amp;simpsons_guest_stars!C510&amp;"','"&amp;simpsons_guest_stars!A510&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kim Cattrall','FABF22','16');</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B511&amp;"','"&amp;simpsons_guest_stars!C511&amp;"','"&amp;simpsons_guest_stars!A511&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Terry Greene','FABF21','16');</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B512&amp;"','"&amp;simpsons_guest_stars!C512&amp;"','"&amp;simpsons_guest_stars!A512&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eric Idle','FABF21','16');</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B513&amp;"','"&amp;simpsons_guest_stars!C513&amp;"','"&amp;simpsons_guest_stars!A513&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Brady','GABF02','16');</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B514&amp;"','"&amp;simpsons_guest_stars!C514&amp;"','"&amp;simpsons_guest_stars!A514&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('LeBron James','GABF02','16');</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B515&amp;"','"&amp;simpsons_guest_stars!C515&amp;"','"&amp;simpsons_guest_stars!A515&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michelle Kwan','GABF02','16');</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B516&amp;"','"&amp;simpsons_guest_stars!C516&amp;"','"&amp;simpsons_guest_stars!A516&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Warren Sapp','GABF02','16');</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B517&amp;"','"&amp;simpsons_guest_stars!C517&amp;"','"&amp;simpsons_guest_stars!A517&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Yao Ming','GABF02','16');</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B518&amp;"','"&amp;simpsons_guest_stars!C518&amp;"','"&amp;simpsons_guest_stars!A518&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('50 Cent','GABF03','16');</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B519&amp;"','"&amp;simpsons_guest_stars!C519&amp;"','"&amp;simpsons_guest_stars!A519&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dana Gould','GABF03','16');</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B520&amp;"','"&amp;simpsons_guest_stars!C520&amp;"','"&amp;simpsons_guest_stars!A520&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gary Busey','GABF05','16');</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B521&amp;"','"&amp;simpsons_guest_stars!C521&amp;"','"&amp;simpsons_guest_stars!A521&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','GABF05','16');</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B522&amp;"','"&amp;simpsons_guest_stars!C522&amp;"','"&amp;simpsons_guest_stars!A522&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lucy Liu','GABF06','16');</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B523&amp;"','"&amp;simpsons_guest_stars!C523&amp;"','"&amp;simpsons_guest_stars!A523&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Wagner','GABF06','16');</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B524&amp;"','"&amp;simpsons_guest_stars!C524&amp;"','"&amp;simpsons_guest_stars!A524&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Gehry','GABF08','16');</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B525&amp;"','"&amp;simpsons_guest_stars!C525&amp;"','"&amp;simpsons_guest_stars!A525&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','GABF08','16');</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B526&amp;"','"&amp;simpsons_guest_stars!C526&amp;"','"&amp;simpsons_guest_stars!A526&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Charles Napier','GABF08','16');</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B527&amp;"','"&amp;simpsons_guest_stars!C527&amp;"','"&amp;simpsons_guest_stars!A527&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John DiMaggio','GABF12','16');</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B528&amp;"','"&amp;simpsons_guest_stars!C528&amp;"','"&amp;simpsons_guest_stars!A528&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Amy Poehler','GABF12','16');</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B529&amp;"','"&amp;simpsons_guest_stars!C529&amp;"','"&amp;simpsons_guest_stars!A529&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Hawking','GABF10','16');</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B530&amp;"','"&amp;simpsons_guest_stars!C530&amp;"','"&amp;simpsons_guest_stars!A530&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ray Romano','GABF10','16');</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B531&amp;"','"&amp;simpsons_guest_stars!C531&amp;"','"&amp;simpsons_guest_stars!A531&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','GABF11','16');</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B532&amp;"','"&amp;simpsons_guest_stars!C532&amp;"','"&amp;simpsons_guest_stars!A532&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fantasia Barrino','GABF13','16');</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B533&amp;"','"&amp;simpsons_guest_stars!C533&amp;"','"&amp;simpsons_guest_stars!A533&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Baha Men','GABF14','16');</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B534&amp;"','"&amp;simpsons_guest_stars!C534&amp;"','"&amp;simpsons_guest_stars!A534&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Los Lobos','GABF14','16');</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B535&amp;"','"&amp;simpsons_guest_stars!C535&amp;"','"&amp;simpsons_guest_stars!A535&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jason Bateman','GABF15','16');</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B536&amp;"','"&amp;simpsons_guest_stars!C536&amp;"','"&amp;simpsons_guest_stars!A536&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Liam Neeson','GABF09','16');</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B537&amp;"','"&amp;simpsons_guest_stars!C537&amp;"','"&amp;simpsons_guest_stars!A537&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alec Baldwin','GABF18','17');</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B538&amp;"','"&amp;simpsons_guest_stars!C538&amp;"','"&amp;simpsons_guest_stars!A538&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','GABF18','17');</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B539&amp;"','"&amp;simpsons_guest_stars!C539&amp;"','"&amp;simpsons_guest_stars!A539&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Terry Bradshaw','GABF17','17');</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B540&amp;"','"&amp;simpsons_guest_stars!C540&amp;"','"&amp;simpsons_guest_stars!A540&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dennis Rodman','GABF17','17');</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B541&amp;"','"&amp;simpsons_guest_stars!C541&amp;"','"&amp;simpsons_guest_stars!A541&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lily Tomlin','GABF22','17');</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B542&amp;"','"&amp;simpsons_guest_stars!C542&amp;"','"&amp;simpsons_guest_stars!A542&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maria Grazia Cucinotta','HABF02','17');</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B543&amp;"','"&amp;simpsons_guest_stars!C543&amp;"','"&amp;simpsons_guest_stars!A543&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','HABF02','17');</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B544&amp;"','"&amp;simpsons_guest_stars!C544&amp;"','"&amp;simpsons_guest_stars!A544&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Frazier','HABF03','17');</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B545&amp;"','"&amp;simpsons_guest_stars!C545&amp;"','"&amp;simpsons_guest_stars!A545&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('William H. Macy','HABF03','17');</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B546&amp;"','"&amp;simpsons_guest_stars!C546&amp;"','"&amp;simpsons_guest_stars!A546&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael York','HABF03','17');</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B547&amp;"','"&amp;simpsons_guest_stars!C547&amp;"','"&amp;simpsons_guest_stars!A547&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','HABF07','17');</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B548&amp;"','"&amp;simpsons_guest_stars!C548&amp;"','"&amp;simpsons_guest_stars!A548&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Antonio Fargas','HABF07','17');</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B549&amp;"','"&amp;simpsons_guest_stars!C549&amp;"','"&amp;simpsons_guest_stars!A549&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Randy Johnson','HABF07','17');</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B550&amp;"','"&amp;simpsons_guest_stars!C550&amp;"','"&amp;simpsons_guest_stars!A550&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Susan Sarandon','HABF07','17');</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B551&amp;"','"&amp;simpsons_guest_stars!C551&amp;"','"&amp;simpsons_guest_stars!A551&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dave Thomas','HABF07','17');</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B552&amp;"','"&amp;simpsons_guest_stars!C552&amp;"','"&amp;simpsons_guest_stars!A552&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ricky Gervais','HABF08','17');</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B553&amp;"','"&amp;simpsons_guest_stars!C553&amp;"','"&amp;simpsons_guest_stars!A553&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Carrington','HABF09','17');</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B554&amp;"','"&amp;simpsons_guest_stars!C554&amp;"','"&amp;simpsons_guest_stars!A554&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rob Reiner','HABF09','17');</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B555&amp;"','"&amp;simpsons_guest_stars!C555&amp;"','"&amp;simpsons_guest_stars!A555&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Richard Dean Anderson','HABF10','17');</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B556&amp;"','"&amp;simpsons_guest_stars!C556&amp;"','"&amp;simpsons_guest_stars!A556&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Meher Tatna','HABF10','17');</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B557&amp;"','"&amp;simpsons_guest_stars!C557&amp;"','"&amp;simpsons_guest_stars!A557&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Gilstrap','HABF12','17');</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B558&amp;"','"&amp;simpsons_guest_stars!C558&amp;"','"&amp;simpsons_guest_stars!A558&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frances McDormand','HABF12','17');</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B559&amp;"','"&amp;simpsons_guest_stars!C559&amp;"','"&amp;simpsons_guest_stars!A559&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sal Bando','HABF13','17');</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B560&amp;"','"&amp;simpsons_guest_stars!C560&amp;"','"&amp;simpsons_guest_stars!A560&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gene Tenace','HABF13','17');</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B561&amp;"','"&amp;simpsons_guest_stars!C561&amp;"','"&amp;simpsons_guest_stars!A561&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Melanie Griffith','HABF14','17');</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B562&amp;"','"&amp;simpsons_guest_stars!C562&amp;"','"&amp;simpsons_guest_stars!A562&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Larry Hagman','HABF14','17');</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B563&amp;"','"&amp;simpsons_guest_stars!C563&amp;"','"&amp;simpsons_guest_stars!A563&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stacy Keach','HABF16','17');</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B564&amp;"','"&amp;simpsons_guest_stars!C564&amp;"','"&amp;simpsons_guest_stars!A564&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mandy Moore','HABF16','17');</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B565&amp;"','"&amp;simpsons_guest_stars!C565&amp;"','"&amp;simpsons_guest_stars!A565&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Imperioli','HABF15','18');</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B566&amp;"','"&amp;simpsons_guest_stars!C566&amp;"','"&amp;simpsons_guest_stars!A566&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','HABF15','18');</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B567&amp;"','"&amp;simpsons_guest_stars!C567&amp;"','"&amp;simpsons_guest_stars!A567&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Metallica','HABF15','18');</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B568&amp;"','"&amp;simpsons_guest_stars!C568&amp;"','"&amp;simpsons_guest_stars!A568&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Pantoliano','HABF15','18');</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B569&amp;"','"&amp;simpsons_guest_stars!C569&amp;"','"&amp;simpsons_guest_stars!A569&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('The White Stripes','HABF18','18');</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B570&amp;"','"&amp;simpsons_guest_stars!C570&amp;"','"&amp;simpsons_guest_stars!A570&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fran Drescher','HABF17','18');</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B571&amp;"','"&amp;simpsons_guest_stars!C571&amp;"','"&amp;simpsons_guest_stars!A571&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','HABF17','18');</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B572&amp;"','"&amp;simpsons_guest_stars!C572&amp;"','"&amp;simpsons_guest_stars!A572&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Richard Lewis','HABF17','18');</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B573&amp;"','"&amp;simpsons_guest_stars!C573&amp;"','"&amp;simpsons_guest_stars!A573&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil McGraw','HABF17','18');</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B574&amp;"','"&amp;simpsons_guest_stars!C574&amp;"','"&amp;simpsons_guest_stars!A574&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sir Mix-a-Lot','HABF17','18');</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B575&amp;"','"&amp;simpsons_guest_stars!C575&amp;"','"&amp;simpsons_guest_stars!A575&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','HABF21','18');</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B576&amp;"','"&amp;simpsons_guest_stars!C576&amp;"','"&amp;simpsons_guest_stars!A576&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kiefer Sutherland','HABF21','18');</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B577&amp;"','"&amp;simpsons_guest_stars!C577&amp;"','"&amp;simpsons_guest_stars!A577&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Chabon','HABF19','18');</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B578&amp;"','"&amp;simpsons_guest_stars!C578&amp;"','"&amp;simpsons_guest_stars!A578&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jonathan Franzen','HABF19','18');</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B579&amp;"','"&amp;simpsons_guest_stars!C579&amp;"','"&amp;simpsons_guest_stars!A579&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('J. K. Simmons','HABF19','18');</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B580&amp;"','"&amp;simpsons_guest_stars!C580&amp;"','"&amp;simpsons_guest_stars!A580&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gore Vidal','HABF19','18');</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B581&amp;"','"&amp;simpsons_guest_stars!C581&amp;"','"&amp;simpsons_guest_stars!A581&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Wolfe','HABF19','18');</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B582&amp;"','"&amp;simpsons_guest_stars!C582&amp;"','"&amp;simpsons_guest_stars!A582&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elvis Stojko','JABF01','18');</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B583&amp;"','"&amp;simpsons_guest_stars!C583&amp;"','"&amp;simpsons_guest_stars!A583&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dana Gould','JABF03','18');</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B584&amp;"','"&amp;simpsons_guest_stars!C584&amp;"','"&amp;simpsons_guest_stars!A584&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','JABF03','18');</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B585&amp;"','"&amp;simpsons_guest_stars!C585&amp;"','"&amp;simpsons_guest_stars!A585&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sab Shimono','JABF03','18');</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B586&amp;"','"&amp;simpsons_guest_stars!C586&amp;"','"&amp;simpsons_guest_stars!A586&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Natalie Portman','JABF04','18');</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B587&amp;"','"&amp;simpsons_guest_stars!C587&amp;"','"&amp;simpsons_guest_stars!A587&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eric Idle','JABF07','18');</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B588&amp;"','"&amp;simpsons_guest_stars!C588&amp;"','"&amp;simpsons_guest_stars!A588&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Peter Bogdanovich','JABF09','18');</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B589&amp;"','"&amp;simpsons_guest_stars!C589&amp;"','"&amp;simpsons_guest_stars!A589&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Andy Dick','JABF09','18');</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B590&amp;"','"&amp;simpsons_guest_stars!C590&amp;"','"&amp;simpsons_guest_stars!A590&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Patterson','JABF09','18');</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B591&amp;"','"&amp;simpsons_guest_stars!C591&amp;"','"&amp;simpsons_guest_stars!A591&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Meg Ryan','JABF09','18');</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B592&amp;"','"&amp;simpsons_guest_stars!C592&amp;"','"&amp;simpsons_guest_stars!A592&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Sondheim','JABF09','18');</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B593&amp;"','"&amp;simpsons_guest_stars!C593&amp;"','"&amp;simpsons_guest_stars!A593&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','JABF08','18');</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B594&amp;"','"&amp;simpsons_guest_stars!C594&amp;"','"&amp;simpsons_guest_stars!A594&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','JABF06','18');</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B595&amp;"','"&amp;simpsons_guest_stars!C595&amp;"','"&amp;simpsons_guest_stars!A595&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('J. K. Simmons','JABF06','18');</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B596&amp;"','"&amp;simpsons_guest_stars!C596&amp;"','"&amp;simpsons_guest_stars!A596&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Betty White','JABF06','18');</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B597&amp;"','"&amp;simpsons_guest_stars!C597&amp;"','"&amp;simpsons_guest_stars!A597&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ronaldo','JABF12','18');</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B598&amp;"','"&amp;simpsons_guest_stars!C598&amp;"','"&amp;simpsons_guest_stars!A598&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rudy Giuliani','JABF06','18');</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B599&amp;"','"&amp;simpsons_guest_stars!C599&amp;"','"&amp;simpsons_guest_stars!A599&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Hawking','JABF06','18');</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B600&amp;"','"&amp;simpsons_guest_stars!C600&amp;"','"&amp;simpsons_guest_stars!A600&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','JABF06','18');</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B601&amp;"','"&amp;simpsons_guest_stars!C601&amp;"','"&amp;simpsons_guest_stars!A601&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mary Lynn Rajskub','JABF14','18');</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B602&amp;"','"&amp;simpsons_guest_stars!C602&amp;"','"&amp;simpsons_guest_stars!A602&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kiefer Sutherland','JABF14','18');</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B603&amp;"','"&amp;simpsons_guest_stars!C603&amp;"','"&amp;simpsons_guest_stars!A603&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','JABF15','18');</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B604&amp;"','"&amp;simpsons_guest_stars!C604&amp;"','"&amp;simpsons_guest_stars!A604&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ludacris','JABF15','18');</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B605&amp;"','"&amp;simpsons_guest_stars!C605&amp;"','"&amp;simpsons_guest_stars!A605&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Colbert','JABF20','19');</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B606&amp;"','"&amp;simpsons_guest_stars!C606&amp;"','"&amp;simpsons_guest_stars!A606&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lionel Richie','JABF20','19');</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B607&amp;"','"&amp;simpsons_guest_stars!C607&amp;"','"&amp;simpsons_guest_stars!A607&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('PlÃ¡cido Domingo','JABF18','19');</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B608&amp;"','"&amp;simpsons_guest_stars!C608&amp;"','"&amp;simpsons_guest_stars!A608&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maya Rudolph','JABF18','19');</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B609&amp;"','"&amp;simpsons_guest_stars!C609&amp;"','"&amp;simpsons_guest_stars!A609&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Matt Dillon','JABF21','19');</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B610&amp;"','"&amp;simpsons_guest_stars!C610&amp;"','"&amp;simpsons_guest_stars!A610&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Buscemi','JABF19','19');</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B611&amp;"','"&amp;simpsons_guest_stars!C611&amp;"','"&amp;simpsons_guest_stars!A611&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Julia Louis-Dreyfus','JABF19','19');</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B612&amp;"','"&amp;simpsons_guest_stars!C612&amp;"','"&amp;simpsons_guest_stars!A612&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ted Nugent','JABF19','19');</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B613&amp;"','"&amp;simpsons_guest_stars!C613&amp;"','"&amp;simpsons_guest_stars!A613&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','JABF16','19');</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B614&amp;"','"&amp;simpsons_guest_stars!C614&amp;"','"&amp;simpsons_guest_stars!A614&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack Black','JABF17','19');</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B615&amp;"','"&amp;simpsons_guest_stars!C615&amp;"','"&amp;simpsons_guest_stars!A615&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Daniel Clowes','JABF17','19');</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B616&amp;"','"&amp;simpsons_guest_stars!C616&amp;"','"&amp;simpsons_guest_stars!A616&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','JABF17','19');</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B617&amp;"','"&amp;simpsons_guest_stars!C617&amp;"','"&amp;simpsons_guest_stars!A617&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sang Am Lee','JABF17','19');</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B618&amp;"','"&amp;simpsons_guest_stars!C618&amp;"','"&amp;simpsons_guest_stars!A618&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alan Moore','JABF17','19');</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B619&amp;"','"&amp;simpsons_guest_stars!C619&amp;"','"&amp;simpsons_guest_stars!A619&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Art Spiegelman','JABF17','19');</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B620&amp;"','"&amp;simpsons_guest_stars!C620&amp;"','"&amp;simpsons_guest_stars!A620&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','KABF01','19');</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B621&amp;"','"&amp;simpsons_guest_stars!C621&amp;"','"&amp;simpsons_guest_stars!A621&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Mahoney','KABF01','19');</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B622&amp;"','"&amp;simpsons_guest_stars!C622&amp;"','"&amp;simpsons_guest_stars!A622&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Keith Olbermann','KABF01','19');</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B623&amp;"','"&amp;simpsons_guest_stars!C623&amp;"','"&amp;simpsons_guest_stars!A623&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Hyde Pierce','KABF01','19');</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B624&amp;"','"&amp;simpsons_guest_stars!C624&amp;"','"&amp;simpsons_guest_stars!A624&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dan Rather','KABF03','19');</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B625&amp;"','"&amp;simpsons_guest_stars!C625&amp;"','"&amp;simpsons_guest_stars!A625&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Stewart','KABF03','19');</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B626&amp;"','"&amp;simpsons_guest_stars!C626&amp;"','"&amp;simpsons_guest_stars!A626&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kurt Loder','KABF04','19');</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B627&amp;"','"&amp;simpsons_guest_stars!C627&amp;"','"&amp;simpsons_guest_stars!A627&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Weird Al Yankovic','KABF04','19');</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B628&amp;"','"&amp;simpsons_guest_stars!C628&amp;"','"&amp;simpsons_guest_stars!A628&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Topher Grace','KABF06','19');</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B629&amp;"','"&amp;simpsons_guest_stars!C629&amp;"','"&amp;simpsons_guest_stars!A629&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Terry Gross','KABF06','19');</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B630&amp;"','"&amp;simpsons_guest_stars!C630&amp;"','"&amp;simpsons_guest_stars!A630&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Beverly D'Angelo','KABF09','19');</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B631&amp;"','"&amp;simpsons_guest_stars!C631&amp;"','"&amp;simpsons_guest_stars!A631&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dixie Chicks','KABF09','19');</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B632&amp;"','"&amp;simpsons_guest_stars!C632&amp;"','"&amp;simpsons_guest_stars!A632&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Zooey Deschanel','KABF10','19');</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B633&amp;"','"&amp;simpsons_guest_stars!C633&amp;"','"&amp;simpsons_guest_stars!A633&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jim Jarmusch','KABF11','19');</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B634&amp;"','"&amp;simpsons_guest_stars!C634&amp;"','"&amp;simpsons_guest_stars!A634&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John C. Reilly','KABF11','19');</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B635&amp;"','"&amp;simpsons_guest_stars!C635&amp;"','"&amp;simpsons_guest_stars!A635&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lance Armstrong','KABF12','19');</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B636&amp;"','"&amp;simpsons_guest_stars!C636&amp;"','"&amp;simpsons_guest_stars!A636&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','KABF12','19');</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B637&amp;"','"&amp;simpsons_guest_stars!C637&amp;"','"&amp;simpsons_guest_stars!A637&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Drew Carey','KABF13','19');</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B638&amp;"','"&amp;simpsons_guest_stars!C638&amp;"','"&amp;simpsons_guest_stars!A638&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Forster','KABF17','20');</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B639&amp;"','"&amp;simpsons_guest_stars!C639&amp;"','"&amp;simpsons_guest_stars!A639&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Julia Louis-Dreyfus','KABF17','20');</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B640&amp;"','"&amp;simpsons_guest_stars!C640&amp;"','"&amp;simpsons_guest_stars!A640&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','KABF17','20');</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B641&amp;"','"&amp;simpsons_guest_stars!C641&amp;"','"&amp;simpsons_guest_stars!A641&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brian Grazer','KABF15','20');</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B642&amp;"','"&amp;simpsons_guest_stars!C642&amp;"','"&amp;simpsons_guest_stars!A642&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Denis Leary','KABF15','20');</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B643&amp;"','"&amp;simpsons_guest_stars!C643&amp;"','"&amp;simpsons_guest_stars!A643&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Montana','KABF14','20');</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B644&amp;"','"&amp;simpsons_guest_stars!C644&amp;"','"&amp;simpsons_guest_stars!A644&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','KABF18','20');</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B645&amp;"','"&amp;simpsons_guest_stars!C645&amp;"','"&amp;simpsons_guest_stars!A645&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Merl Reagle','KABF19','20');</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B646&amp;"','"&amp;simpsons_guest_stars!C646&amp;"','"&amp;simpsons_guest_stars!A646&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Will Shortz','KABF19','20');</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B647&amp;"','"&amp;simpsons_guest_stars!C647&amp;"','"&amp;simpsons_guest_stars!A647&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Scott Thompson','KABF19','20');</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B648&amp;"','"&amp;simpsons_guest_stars!C648&amp;"','"&amp;simpsons_guest_stars!A648&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Shohreh Aghdashloo','KABF20','20');</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B649&amp;"','"&amp;simpsons_guest_stars!C649&amp;"','"&amp;simpsons_guest_stars!A649&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Marv Albert','KABF21','20');</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B650&amp;"','"&amp;simpsons_guest_stars!C650&amp;"','"&amp;simpsons_guest_stars!A650&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jeff Bezos','KABF21','20');</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B651&amp;"','"&amp;simpsons_guest_stars!C651&amp;"','"&amp;simpsons_guest_stars!A651&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mark Cuban','KABF21','20');</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B652&amp;"','"&amp;simpsons_guest_stars!C652&amp;"','"&amp;simpsons_guest_stars!A652&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Emily Blunt','KABF22','20');</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B653&amp;"','"&amp;simpsons_guest_stars!C653&amp;"','"&amp;simpsons_guest_stars!A653&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fall Out Boy','KABF22','20');</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B654&amp;"','"&amp;simpsons_guest_stars!C654&amp;"','"&amp;simpsons_guest_stars!A654&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','LABF03','20');</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B655&amp;"','"&amp;simpsons_guest_stars!C655&amp;"','"&amp;simpsons_guest_stars!A655&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ed Begley Jr.','LABF04','20');</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B656&amp;"','"&amp;simpsons_guest_stars!C656&amp;"','"&amp;simpsons_guest_stars!A656&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glen Hansard','LABF11','20');</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B657&amp;"','"&amp;simpsons_guest_stars!C657&amp;"','"&amp;simpsons_guest_stars!A657&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Markéta Irglová','LABF11','20');</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B658&amp;"','"&amp;simpsons_guest_stars!C658&amp;"','"&amp;simpsons_guest_stars!A658&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Colm Meaney','LABF11','20');</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B659&amp;"','"&amp;simpsons_guest_stars!C659&amp;"','"&amp;simpsons_guest_stars!A659&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','LABF05','20');</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B660&amp;"','"&amp;simpsons_guest_stars!C660&amp;"','"&amp;simpsons_guest_stars!A660&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anne Hathaway','LABF07','20');</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B661&amp;"','"&amp;simpsons_guest_stars!C661&amp;"','"&amp;simpsons_guest_stars!A661&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','LABF10','20');</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B662&amp;"','"&amp;simpsons_guest_stars!C662&amp;"','"&amp;simpsons_guest_stars!A662&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','LABF10','20');</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B663&amp;"','"&amp;simpsons_guest_stars!C663&amp;"','"&amp;simpsons_guest_stars!A663&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ellen Page','LABF10','20');</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B664&amp;"','"&amp;simpsons_guest_stars!C664&amp;"','"&amp;simpsons_guest_stars!A664&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jodie Foster','LABF09','20');</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B665&amp;"','"&amp;simpsons_guest_stars!C665&amp;"','"&amp;simpsons_guest_stars!A665&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Matt Groening','LABF13','21');</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B666&amp;"','"&amp;simpsons_guest_stars!C666&amp;"','"&amp;simpsons_guest_stars!A666&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Seth Rogen','LABF13','21');</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B667&amp;"','"&amp;simpsons_guest_stars!C667&amp;"','"&amp;simpsons_guest_stars!A667&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','LABF13','21');</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B668&amp;"','"&amp;simpsons_guest_stars!C668&amp;"','"&amp;simpsons_guest_stars!A668&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Chuck Liddell','LABF16','21');</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B669&amp;"','"&amp;simpsons_guest_stars!C669&amp;"','"&amp;simpsons_guest_stars!A669&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jonah Hill','LABF18','21');</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B670&amp;"','"&amp;simpsons_guest_stars!C670&amp;"','"&amp;simpsons_guest_stars!A670&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Neve Campbell','LABF19','21');</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B671&amp;"','"&amp;simpsons_guest_stars!C671&amp;"','"&amp;simpsons_guest_stars!A671&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kim Cattrall','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B672&amp;"','"&amp;simpsons_guest_stars!C672&amp;"','"&amp;simpsons_guest_stars!A672&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Huell Howser','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B673&amp;"','"&amp;simpsons_guest_stars!C673&amp;"','"&amp;simpsons_guest_stars!A673&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cooper Manning','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B674&amp;"','"&amp;simpsons_guest_stars!C674&amp;"','"&amp;simpsons_guest_stars!A674&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eli Manning','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B675&amp;"','"&amp;simpsons_guest_stars!C675&amp;"','"&amp;simpsons_guest_stars!A675&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Peyton Manning','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B676&amp;"','"&amp;simpsons_guest_stars!C676&amp;"','"&amp;simpsons_guest_stars!A676&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jordan Nagai','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B677&amp;"','"&amp;simpsons_guest_stars!C677&amp;"','"&amp;simpsons_guest_stars!A677&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Smothers Brothers','MABF01','21');</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B678&amp;"','"&amp;simpsons_guest_stars!C678&amp;"','"&amp;simpsons_guest_stars!A678&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mitch Albom','LABF19','21');</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B679&amp;"','"&amp;simpsons_guest_stars!C679&amp;"','"&amp;simpsons_guest_stars!A679&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anne Hathaway','LABF20','21');</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B680&amp;"','"&amp;simpsons_guest_stars!C680&amp;"','"&amp;simpsons_guest_stars!A680&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eartha Kitt','LABF20','21');</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B681&amp;"','"&amp;simpsons_guest_stars!C681&amp;"','"&amp;simpsons_guest_stars!A681&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','LABF20','21');</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B682&amp;"','"&amp;simpsons_guest_stars!C682&amp;"','"&amp;simpsons_guest_stars!A682&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gary Larson','LABF20','21');</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B683&amp;"','"&amp;simpsons_guest_stars!C683&amp;"','"&amp;simpsons_guest_stars!A683&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','LABF20','21');</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B684&amp;"','"&amp;simpsons_guest_stars!C684&amp;"','"&amp;simpsons_guest_stars!A684&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Chris Martin','MABF03','21');</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B685&amp;"','"&amp;simpsons_guest_stars!C685&amp;"','"&amp;simpsons_guest_stars!A685&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bob Costas','MABF05','21');</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B686&amp;"','"&amp;simpsons_guest_stars!C686&amp;"','"&amp;simpsons_guest_stars!A686&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Wren T. Brown','MABF06','21');</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B687&amp;"','"&amp;simpsons_guest_stars!C687&amp;"','"&amp;simpsons_guest_stars!A687&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Angela Bassett','MABF07','21');</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B688&amp;"','"&amp;simpsons_guest_stars!C688&amp;"','"&amp;simpsons_guest_stars!A688&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sarah Silverman','MABF07','21');</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B689&amp;"','"&amp;simpsons_guest_stars!C689&amp;"','"&amp;simpsons_guest_stars!A689&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sacha Baron Cohen','MABF10','21');</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B690&amp;"','"&amp;simpsons_guest_stars!C690&amp;"','"&amp;simpsons_guest_stars!A690&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Yael Naim','MABF10','21');</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B691&amp;"','"&amp;simpsons_guest_stars!C691&amp;"','"&amp;simpsons_guest_stars!A691&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','MABF08','21');</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B692&amp;"','"&amp;simpsons_guest_stars!C692&amp;"','"&amp;simpsons_guest_stars!A692&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','MABF08','21');</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B693&amp;"','"&amp;simpsons_guest_stars!C693&amp;"','"&amp;simpsons_guest_stars!A693&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Kaczmarek','MABF09','21');</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B694&amp;"','"&amp;simpsons_guest_stars!C694&amp;"','"&amp;simpsons_guest_stars!A694&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','MABF09','21');</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B695&amp;"','"&amp;simpsons_guest_stars!C695&amp;"','"&amp;simpsons_guest_stars!A695&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','MABF09','21');</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B696&amp;"','"&amp;simpsons_guest_stars!C696&amp;"','"&amp;simpsons_guest_stars!A696&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eddie Izzard','MABF12','21');</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B697&amp;"','"&amp;simpsons_guest_stars!C697&amp;"','"&amp;simpsons_guest_stars!A697&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Don Pardo','MABF13','21');</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B698&amp;"','"&amp;simpsons_guest_stars!C698&amp;"','"&amp;simpsons_guest_stars!A698&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','MABF11','21');</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B699&amp;"','"&amp;simpsons_guest_stars!C699&amp;"','"&amp;simpsons_guest_stars!A699&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Simon Cowell','MABF15','21');</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B700&amp;"','"&amp;simpsons_guest_stars!C700&amp;"','"&amp;simpsons_guest_stars!A700&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ellen DeGeneres','MABF15','21');</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B701&amp;"','"&amp;simpsons_guest_stars!C701&amp;"','"&amp;simpsons_guest_stars!A701&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kara DioGuardi','MABF15','21');</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B702&amp;"','"&amp;simpsons_guest_stars!C702&amp;"','"&amp;simpsons_guest_stars!A702&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Randy Jackson','MABF15','21');</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B703&amp;"','"&amp;simpsons_guest_stars!C703&amp;"','"&amp;simpsons_guest_stars!A703&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rupert Murdoch','MABF15','21');</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B704&amp;"','"&amp;simpsons_guest_stars!C704&amp;"','"&amp;simpsons_guest_stars!A704&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ryan Seacrest','MABF15','21');</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B705&amp;"','"&amp;simpsons_guest_stars!C705&amp;"','"&amp;simpsons_guest_stars!A705&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jemaine Clement','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B706&amp;"','"&amp;simpsons_guest_stars!C706&amp;"','"&amp;simpsons_guest_stars!A706&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ira Glass','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B707&amp;"','"&amp;simpsons_guest_stars!C707&amp;"','"&amp;simpsons_guest_stars!A707&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Hawking','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B708&amp;"','"&amp;simpsons_guest_stars!C708&amp;"','"&amp;simpsons_guest_stars!A708&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bret McKenzie','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B709&amp;"','"&amp;simpsons_guest_stars!C709&amp;"','"&amp;simpsons_guest_stars!A709&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lea Michele','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B710&amp;"','"&amp;simpsons_guest_stars!C710&amp;"','"&amp;simpsons_guest_stars!A710&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cory Monteith','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B711&amp;"','"&amp;simpsons_guest_stars!C711&amp;"','"&amp;simpsons_guest_stars!A711&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Amber Riley','MABF21','22');</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B712&amp;"','"&amp;simpsons_guest_stars!C712&amp;"','"&amp;simpsons_guest_stars!A712&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Chris Hansen','MABF17','22');</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B713&amp;"','"&amp;simpsons_guest_stars!C713&amp;"','"&amp;simpsons_guest_stars!A713&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Muhammad Yunus','MABF17','22');</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B714&amp;"','"&amp;simpsons_guest_stars!C714&amp;"','"&amp;simpsons_guest_stars!A714&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mark Zuckerberg','MABF17','22');</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B715&amp;"','"&amp;simpsons_guest_stars!C715&amp;"','"&amp;simpsons_guest_stars!A715&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bill James','MABF18','22');</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B716&amp;"','"&amp;simpsons_guest_stars!C716&amp;"','"&amp;simpsons_guest_stars!A716&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mike Scioscia','MABF18','22');</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B717&amp;"','"&amp;simpsons_guest_stars!C717&amp;"','"&amp;simpsons_guest_stars!A717&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Hugh Laurie','MABF16','22');</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B718&amp;"','"&amp;simpsons_guest_stars!C718&amp;"','"&amp;simpsons_guest_stars!A718&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Daniel Radcliffe','MABF16','22');</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B719&amp;"','"&amp;simpsons_guest_stars!C719&amp;"','"&amp;simpsons_guest_stars!A719&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Danica Patrick','NABF02','22');</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B720&amp;"','"&amp;simpsons_guest_stars!C720&amp;"','"&amp;simpsons_guest_stars!A720&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rachel Weisz','NABF02','22');</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B721&amp;"','"&amp;simpsons_guest_stars!C721&amp;"','"&amp;simpsons_guest_stars!A721&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Katy Perry','MABF22','22');</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B722&amp;"','"&amp;simpsons_guest_stars!C722&amp;"','"&amp;simpsons_guest_stars!A722&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Martha Stewart','MABF22','22');</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B723&amp;"','"&amp;simpsons_guest_stars!C723&amp;"','"&amp;simpsons_guest_stars!A723&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Hamm','MABF19','22');</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B724&amp;"','"&amp;simpsons_guest_stars!C724&amp;"','"&amp;simpsons_guest_stars!A724&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','MABF19','22');</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B725&amp;"','"&amp;simpsons_guest_stars!C725&amp;"','"&amp;simpsons_guest_stars!A725&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alyson Hannigan','NABF04','22');</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B726&amp;"','"&amp;simpsons_guest_stars!C726&amp;"','"&amp;simpsons_guest_stars!A726&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Scott Thompson','NABF04','22');</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B727&amp;"','"&amp;simpsons_guest_stars!C727&amp;"','"&amp;simpsons_guest_stars!A727&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kristen Wiig','NABF04','22');</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B728&amp;"','"&amp;simpsons_guest_stars!C728&amp;"','"&amp;simpsons_guest_stars!A728&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Paul Chan','NABF05','22');</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B729&amp;"','"&amp;simpsons_guest_stars!C729&amp;"','"&amp;simpsons_guest_stars!A729&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('James Lipton','NABF05','22');</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B730&amp;"','"&amp;simpsons_guest_stars!C730&amp;"','"&amp;simpsons_guest_stars!A730&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Mamet','NABF05','22');</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B731&amp;"','"&amp;simpsons_guest_stars!C731&amp;"','"&amp;simpsons_guest_stars!A731&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Garry Marshall','NABF05','22');</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B732&amp;"','"&amp;simpsons_guest_stars!C732&amp;"','"&amp;simpsons_guest_stars!A732&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Halle Berry','NABF07','22');</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B733&amp;"','"&amp;simpsons_guest_stars!C733&amp;"','"&amp;simpsons_guest_stars!A733&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Russell Brand','NABF07','22');</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B734&amp;"','"&amp;simpsons_guest_stars!C734&amp;"','"&amp;simpsons_guest_stars!A734&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ricky Gervais','NABF07','22');</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B735&amp;"','"&amp;simpsons_guest_stars!C735&amp;"','"&amp;simpsons_guest_stars!A735&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','NABF07','22');</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B736&amp;"','"&amp;simpsons_guest_stars!C736&amp;"','"&amp;simpsons_guest_stars!A736&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nick Park','NABF07','22');</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B737&amp;"','"&amp;simpsons_guest_stars!C737&amp;"','"&amp;simpsons_guest_stars!A737&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('J. B. Smoove','NABF07','22');</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B738&amp;"','"&amp;simpsons_guest_stars!C738&amp;"','"&amp;simpsons_guest_stars!A738&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Werner Herzog','NABF08','22');</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B739&amp;"','"&amp;simpsons_guest_stars!C739&amp;"','"&amp;simpsons_guest_stars!A739&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','NABF08','22');</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B740&amp;"','"&amp;simpsons_guest_stars!C740&amp;"','"&amp;simpsons_guest_stars!A740&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tommy Chong','NABF09','22');</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B741&amp;"','"&amp;simpsons_guest_stars!C741&amp;"','"&amp;simpsons_guest_stars!A741&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cheech Marin','NABF09','22');</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B742&amp;"','"&amp;simpsons_guest_stars!C742&amp;"','"&amp;simpsons_guest_stars!A742&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kareem Abdul-Jabbar','NABF10','22');</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B743&amp;"','"&amp;simpsons_guest_stars!C743&amp;"','"&amp;simpsons_guest_stars!A743&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','NABF10','22');</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B744&amp;"','"&amp;simpsons_guest_stars!C744&amp;"','"&amp;simpsons_guest_stars!A744&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Rudd','NABF10','22');</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B745&amp;"','"&amp;simpsons_guest_stars!C745&amp;"','"&amp;simpsons_guest_stars!A745&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Copperfield','NABF11','22');</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B746&amp;"','"&amp;simpsons_guest_stars!C746&amp;"','"&amp;simpsons_guest_stars!A746&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ricky Jay','NABF11','22');</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B747&amp;"','"&amp;simpsons_guest_stars!C747&amp;"','"&amp;simpsons_guest_stars!A747&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Penn Jillette','NABF11','22');</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B748&amp;"','"&amp;simpsons_guest_stars!C748&amp;"','"&amp;simpsons_guest_stars!A748&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Martin Landau','NABF11','22');</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B749&amp;"','"&amp;simpsons_guest_stars!C749&amp;"','"&amp;simpsons_guest_stars!A749&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jack McBrayer','NABF11','22');</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B750&amp;"','"&amp;simpsons_guest_stars!C750&amp;"','"&amp;simpsons_guest_stars!A750&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Teller','NABF11','22');</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B751&amp;"','"&amp;simpsons_guest_stars!C751&amp;"','"&amp;simpsons_guest_stars!A751&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','NABF12','22');</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B752&amp;"','"&amp;simpsons_guest_stars!C752&amp;"','"&amp;simpsons_guest_stars!A752&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kristen Schaal','NABF13','22');</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B753&amp;"','"&amp;simpsons_guest_stars!C753&amp;"','"&amp;simpsons_guest_stars!A753&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','NABF14','22');</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B754&amp;"','"&amp;simpsons_guest_stars!C754&amp;"','"&amp;simpsons_guest_stars!A754&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ken Burns','NABF15','22');</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B755&amp;"','"&amp;simpsons_guest_stars!C755&amp;"','"&amp;simpsons_guest_stars!A755&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joey Kramer','NABF15','22');</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B756&amp;"','"&amp;simpsons_guest_stars!C756&amp;"','"&amp;simpsons_guest_stars!A756&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Colicchio','NABF16','23');</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B757&amp;"','"&amp;simpsons_guest_stars!C757&amp;"','"&amp;simpsons_guest_stars!A757&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','NABF16','23');</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B758&amp;"','"&amp;simpsons_guest_stars!C758&amp;"','"&amp;simpsons_guest_stars!A758&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kiefer Sutherland','NABF16','23');</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B759&amp;"','"&amp;simpsons_guest_stars!C759&amp;"','"&amp;simpsons_guest_stars!A759&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','NABF19','23');</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B760&amp;"','"&amp;simpsons_guest_stars!C760&amp;"','"&amp;simpsons_guest_stars!A760&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Aron Ralston','NABF19','23');</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B761&amp;"','"&amp;simpsons_guest_stars!C761&amp;"','"&amp;simpsons_guest_stars!A761&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Lynch','NABF21','23');</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B762&amp;"','"&amp;simpsons_guest_stars!C762&amp;"','"&amp;simpsons_guest_stars!A762&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Mario Batali','NABF20','23');</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B763&amp;"','"&amp;simpsons_guest_stars!C763&amp;"','"&amp;simpsons_guest_stars!A763&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anthony Bourdain','NABF20','23');</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B764&amp;"','"&amp;simpsons_guest_stars!C764&amp;"','"&amp;simpsons_guest_stars!A764&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tim Heidecker','NABF20','23');</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B765&amp;"','"&amp;simpsons_guest_stars!C765&amp;"','"&amp;simpsons_guest_stars!A765&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Gordon Ramsay','NABF20','23');</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B766&amp;"','"&amp;simpsons_guest_stars!C766&amp;"','"&amp;simpsons_guest_stars!A766&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eric Wareheim','NABF20','23');</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B767&amp;"','"&amp;simpsons_guest_stars!C767&amp;"','"&amp;simpsons_guest_stars!A767&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Neil Gaiman','NABF22','23');</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B768&amp;"','"&amp;simpsons_guest_stars!C768&amp;"','"&amp;simpsons_guest_stars!A768&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Andy GarcÃ­a','NABF22','23');</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B769&amp;"','"&amp;simpsons_guest_stars!C769&amp;"','"&amp;simpsons_guest_stars!A769&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','PABF01','23');</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B770&amp;"','"&amp;simpsons_guest_stars!C770&amp;"','"&amp;simpsons_guest_stars!A770&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Slattery','PABF01','23');</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B771&amp;"','"&amp;simpsons_guest_stars!C771&amp;"','"&amp;simpsons_guest_stars!A771&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Matthew Weiner','PABF01','23');</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B772&amp;"','"&amp;simpsons_guest_stars!C772&amp;"','"&amp;simpsons_guest_stars!A772&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Dillon','PABF02','23');</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B773&amp;"','"&amp;simpsons_guest_stars!C773&amp;"','"&amp;simpsons_guest_stars!A773&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Janeane Garofalo','PABF02','23');</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B774&amp;"','"&amp;simpsons_guest_stars!C774&amp;"','"&amp;simpsons_guest_stars!A774&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','PABF02','23');</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B775&amp;"','"&amp;simpsons_guest_stars!C775&amp;"','"&amp;simpsons_guest_stars!A775&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joan Rivers','PABF02','23');</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B776&amp;"','"&amp;simpsons_guest_stars!C776&amp;"','"&amp;simpsons_guest_stars!A776&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Dana Gould','PABF03','23');</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B777&amp;"','"&amp;simpsons_guest_stars!C777&amp;"','"&amp;simpsons_guest_stars!A777&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ted Nugent','PABF03','23');</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B778&amp;"','"&amp;simpsons_guest_stars!C778&amp;"','"&amp;simpsons_guest_stars!A778&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Armie Hammer','PABF04','23');</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B779&amp;"','"&amp;simpsons_guest_stars!C779&amp;"','"&amp;simpsons_guest_stars!A779&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Letterman','PABF04','23');</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B780&amp;"','"&amp;simpsons_guest_stars!C780&amp;"','"&amp;simpsons_guest_stars!A780&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tiger Lillies','PABF04','23');</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B781&amp;"','"&amp;simpsons_guest_stars!C781&amp;"','"&amp;simpsons_guest_stars!A781&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jeremy Irons','PABF05','23');</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B782&amp;"','"&amp;simpsons_guest_stars!C782&amp;"','"&amp;simpsons_guest_stars!A782&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael Cera','PABF06','23');</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B783&amp;"','"&amp;simpsons_guest_stars!C783&amp;"','"&amp;simpsons_guest_stars!A783&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jamie Hyneman','PABF06','23');</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B784&amp;"','"&amp;simpsons_guest_stars!C784&amp;"','"&amp;simpsons_guest_stars!A784&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Adam Savage','PABF06','23');</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B785&amp;"','"&amp;simpsons_guest_stars!C785&amp;"','"&amp;simpsons_guest_stars!A785&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Julian Assange','PABF07','23');</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B786&amp;"','"&amp;simpsons_guest_stars!C786&amp;"','"&amp;simpsons_guest_stars!A786&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','PABF07','23');</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B787&amp;"','"&amp;simpsons_guest_stars!C787&amp;"','"&amp;simpsons_guest_stars!A787&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alison Krauss and Union Station','PABF07','23');</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B788&amp;"','"&amp;simpsons_guest_stars!C788&amp;"','"&amp;simpsons_guest_stars!A788&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','PABF07','23');</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B789&amp;"','"&amp;simpsons_guest_stars!C789&amp;"','"&amp;simpsons_guest_stars!A789&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robbie Conal','PABF09','23');</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B790&amp;"','"&amp;simpsons_guest_stars!C790&amp;"','"&amp;simpsons_guest_stars!A790&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ron English','PABF09','23');</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B791&amp;"','"&amp;simpsons_guest_stars!C791&amp;"','"&amp;simpsons_guest_stars!A791&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Shepard Fairey','PABF09','23');</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B792&amp;"','"&amp;simpsons_guest_stars!C792&amp;"','"&amp;simpsons_guest_stars!A792&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nicholas McKaig','PABF09','23');</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B793&amp;"','"&amp;simpsons_guest_stars!C793&amp;"','"&amp;simpsons_guest_stars!A793&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kenny Scharf','PABF09','23');</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B794&amp;"','"&amp;simpsons_guest_stars!C794&amp;"','"&amp;simpsons_guest_stars!A794&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Byrne','PABF08','23');</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B795&amp;"','"&amp;simpsons_guest_stars!C795&amp;"','"&amp;simpsons_guest_stars!A795&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','PABF08','23');</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B796&amp;"','"&amp;simpsons_guest_stars!C796&amp;"','"&amp;simpsons_guest_stars!A796&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Brent Spiner','PABF10','23');</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B797&amp;"','"&amp;simpsons_guest_stars!C797&amp;"','"&amp;simpsons_guest_stars!A797&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','PABF11','23');</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B798&amp;"','"&amp;simpsons_guest_stars!C798&amp;"','"&amp;simpsons_guest_stars!A798&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Coogan','PABF12','23');</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B799&amp;"','"&amp;simpsons_guest_stars!C799&amp;"','"&amp;simpsons_guest_stars!A799&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Treat Williams','PABF12','23');</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B800&amp;"','"&amp;simpsons_guest_stars!C800&amp;"','"&amp;simpsons_guest_stars!A800&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bryan Cranston','PABF13','23');</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B801&amp;"','"&amp;simpsons_guest_stars!C801&amp;"','"&amp;simpsons_guest_stars!A801&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eric Idle','PABF13','23');</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B802&amp;"','"&amp;simpsons_guest_stars!C802&amp;"','"&amp;simpsons_guest_stars!A802&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lady Gaga','PABF14','23');</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B803&amp;"','"&amp;simpsons_guest_stars!C803&amp;"','"&amp;simpsons_guest_stars!A803&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','PABF14','23');</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B804&amp;"','"&amp;simpsons_guest_stars!C804&amp;"','"&amp;simpsons_guest_stars!A804&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ken Burns','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B805&amp;"','"&amp;simpsons_guest_stars!C805&amp;"','"&amp;simpsons_guest_stars!A805&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Zooey Deschanel','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B806&amp;"','"&amp;simpsons_guest_stars!C806&amp;"','"&amp;simpsons_guest_stars!A806&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sarah Michelle Gellar','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B807&amp;"','"&amp;simpsons_guest_stars!C807&amp;"','"&amp;simpsons_guest_stars!A807&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anne Hathaway','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B808&amp;"','"&amp;simpsons_guest_stars!C808&amp;"','"&amp;simpsons_guest_stars!A808&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B809&amp;"','"&amp;simpsons_guest_stars!C809&amp;"','"&amp;simpsons_guest_stars!A809&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Don Pardo','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B810&amp;"','"&amp;simpsons_guest_stars!C810&amp;"','"&amp;simpsons_guest_stars!A810&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Natalie Portman','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B811&amp;"','"&amp;simpsons_guest_stars!C811&amp;"','"&amp;simpsons_guest_stars!A811&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B812&amp;"','"&amp;simpsons_guest_stars!C812&amp;"','"&amp;simpsons_guest_stars!A812&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Al Roker','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B813&amp;"','"&amp;simpsons_guest_stars!C813&amp;"','"&amp;simpsons_guest_stars!A813&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sarah Silverman','PABF21','24');</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B814&amp;"','"&amp;simpsons_guest_stars!C814&amp;"','"&amp;simpsons_guest_stars!A814&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','PABF17','24');</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B815&amp;"','"&amp;simpsons_guest_stars!C815&amp;"','"&amp;simpsons_guest_stars!A815&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jeff Gordon','PABF18','24');</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B816&amp;"','"&amp;simpsons_guest_stars!C816&amp;"','"&amp;simpsons_guest_stars!A816&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Marvin Hamlisch','PABF15','24');</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B817&amp;"','"&amp;simpsons_guest_stars!C817&amp;"','"&amp;simpsons_guest_stars!A817&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anika Noni Rose','PABF15','24');</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B818&amp;"','"&amp;simpsons_guest_stars!C818&amp;"','"&amp;simpsons_guest_stars!A818&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jennifer Tilly','PABF15','24');</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B819&amp;"','"&amp;simpsons_guest_stars!C819&amp;"','"&amp;simpsons_guest_stars!A819&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Steve Carell','PABF19','24');</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B820&amp;"','"&amp;simpsons_guest_stars!C820&amp;"','"&amp;simpsons_guest_stars!A820&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','PABF19','24');</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B821&amp;"','"&amp;simpsons_guest_stars!C821&amp;"','"&amp;simpsons_guest_stars!A821&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alex Trebek','PABF19','24');</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B822&amp;"','"&amp;simpsons_guest_stars!C822&amp;"','"&amp;simpsons_guest_stars!A822&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','PABF22','24');</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B823&amp;"','"&amp;simpsons_guest_stars!C823&amp;"','"&amp;simpsons_guest_stars!A823&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Fred Armisen','PABF20','24');</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B824&amp;"','"&amp;simpsons_guest_stars!C824&amp;"','"&amp;simpsons_guest_stars!A824&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Carrie Brownstein','PABF20','24');</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B825&amp;"','"&amp;simpsons_guest_stars!C825&amp;"','"&amp;simpsons_guest_stars!A825&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Colin Meloy','PABF20','24');</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B826&amp;"','"&amp;simpsons_guest_stars!C826&amp;"','"&amp;simpsons_guest_stars!A826&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Patton Oswalt','PABF20','24');</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B827&amp;"','"&amp;simpsons_guest_stars!C827&amp;"','"&amp;simpsons_guest_stars!A827&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','RABF02','24');</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B828&amp;"','"&amp;simpsons_guest_stars!C828&amp;"','"&amp;simpsons_guest_stars!A828&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Waits','RABF02','24');</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B829&amp;"','"&amp;simpsons_guest_stars!C829&amp;"','"&amp;simpsons_guest_stars!A829&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Valerie Harper','RABF03','24');</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B830&amp;"','"&amp;simpsons_guest_stars!C830&amp;"','"&amp;simpsons_guest_stars!A830&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Danny DeVito','RABF04','24');</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B831&amp;"','"&amp;simpsons_guest_stars!C831&amp;"','"&amp;simpsons_guest_stars!A831&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rashida Jones','RABF04','24');</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B832&amp;"','"&amp;simpsons_guest_stars!C832&amp;"','"&amp;simpsons_guest_stars!A832&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert A. Caro','RABF07','24');</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B833&amp;"','"&amp;simpsons_guest_stars!C833&amp;"','"&amp;simpsons_guest_stars!A833&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Benedict Cumberbatch','RABF07','24');</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B834&amp;"','"&amp;simpsons_guest_stars!C834&amp;"','"&amp;simpsons_guest_stars!A834&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Zooey Deschanel','RABF07','24');</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B835&amp;"','"&amp;simpsons_guest_stars!C835&amp;"','"&amp;simpsons_guest_stars!A835&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Max Weinberg','RABF07','24');</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B836&amp;"','"&amp;simpsons_guest_stars!C836&amp;"','"&amp;simpsons_guest_stars!A836&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','RABF05','24');</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B837&amp;"','"&amp;simpsons_guest_stars!C837&amp;"','"&amp;simpsons_guest_stars!A837&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Richard Dawkins','RABF09','24');</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B838&amp;"','"&amp;simpsons_guest_stars!C838&amp;"','"&amp;simpsons_guest_stars!A838&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tina Fey','RABF09','24');</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B839&amp;"','"&amp;simpsons_guest_stars!C839&amp;"','"&amp;simpsons_guest_stars!A839&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Janet Reno','RABF10','24');</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B840&amp;"','"&amp;simpsons_guest_stars!C840&amp;"','"&amp;simpsons_guest_stars!A840&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maggy Reno Hurchalla','RABF10','24');</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B841&amp;"','"&amp;simpsons_guest_stars!C841&amp;"','"&amp;simpsons_guest_stars!A841&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bryan Cranston','RABF08','24');</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B842&amp;"','"&amp;simpsons_guest_stars!C842&amp;"','"&amp;simpsons_guest_stars!A842&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','RABF08','24');</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B843&amp;"','"&amp;simpsons_guest_stars!C843&amp;"','"&amp;simpsons_guest_stars!A843&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Aaron Paul','RABF08','24');</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B844&amp;"','"&amp;simpsons_guest_stars!C844&amp;"','"&amp;simpsons_guest_stars!A844&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Wanda Sykes','RABF08','24');</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B845&amp;"','"&amp;simpsons_guest_stars!C845&amp;"','"&amp;simpsons_guest_stars!A845&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Takei','RABF08','24');</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B846&amp;"','"&amp;simpsons_guest_stars!C846&amp;"','"&amp;simpsons_guest_stars!A846&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Edward Norton','RABF11','24');</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B847&amp;"','"&amp;simpsons_guest_stars!C847&amp;"','"&amp;simpsons_guest_stars!A847&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tony Bennett','RABF13','24');</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B848&amp;"','"&amp;simpsons_guest_stars!C848&amp;"','"&amp;simpsons_guest_stars!A848&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','RABF13','24');</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B849&amp;"','"&amp;simpsons_guest_stars!C849&amp;"','"&amp;simpsons_guest_stars!A849&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sonny Rollins','RABF13','24');</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B850&amp;"','"&amp;simpsons_guest_stars!C850&amp;"','"&amp;simpsons_guest_stars!A850&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ron Taylor','RABF13','24');</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B851&amp;"','"&amp;simpsons_guest_stars!C851&amp;"','"&amp;simpsons_guest_stars!A851&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Justin Bieber','RABF12','24');</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B852&amp;"','"&amp;simpsons_guest_stars!C852&amp;"','"&amp;simpsons_guest_stars!A852&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bill Hader','RABF12','24');</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B853&amp;"','"&amp;simpsons_guest_stars!C853&amp;"','"&amp;simpsons_guest_stars!A853&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Krakowski','RABF12','24');</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B854&amp;"','"&amp;simpsons_guest_stars!C854&amp;"','"&amp;simpsons_guest_stars!A854&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Patrick Stewart','RABF12','24');</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B855&amp;"','"&amp;simpsons_guest_stars!C855&amp;"','"&amp;simpsons_guest_stars!A855&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sigur RÃ³s','RABF14','24');</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B856&amp;"','"&amp;simpsons_guest_stars!C856&amp;"','"&amp;simpsons_guest_stars!A856&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lisa Lampanelli','RABF17','24');</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B857&amp;"','"&amp;simpsons_guest_stars!C857&amp;"','"&amp;simpsons_guest_stars!A857&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Seth MacFarlane','RABF17','24');</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B858&amp;"','"&amp;simpsons_guest_stars!C858&amp;"','"&amp;simpsons_guest_stars!A858&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','RABF20','25');</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B859&amp;"','"&amp;simpsons_guest_stars!C859&amp;"','"&amp;simpsons_guest_stars!A859&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kristen Wiig','RABF20','25');</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B860&amp;"','"&amp;simpsons_guest_stars!C860&amp;"','"&amp;simpsons_guest_stars!A860&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rachel Maddow','RABF18','25');</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B861&amp;"','"&amp;simpsons_guest_stars!C861&amp;"','"&amp;simpsons_guest_stars!A861&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Namath','RABF18','25');</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B862&amp;"','"&amp;simpsons_guest_stars!C862&amp;"','"&amp;simpsons_guest_stars!A862&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','RABF22','25');</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B863&amp;"','"&amp;simpsons_guest_stars!C863&amp;"','"&amp;simpsons_guest_stars!A863&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elisabeth Moss','RABF19','25');</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B864&amp;"','"&amp;simpsons_guest_stars!C864&amp;"','"&amp;simpsons_guest_stars!A864&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Anderson Cooper','SABF02','25');</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B865&amp;"','"&amp;simpsons_guest_stars!C865&amp;"','"&amp;simpsons_guest_stars!A865&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','SABF02','25');</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B866&amp;"','"&amp;simpsons_guest_stars!C866&amp;"','"&amp;simpsons_guest_stars!A866&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Eva Longoria','SABF02','25');</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B867&amp;"','"&amp;simpsons_guest_stars!C867&amp;"','"&amp;simpsons_guest_stars!A867&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','SABF04','25');</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B868&amp;"','"&amp;simpsons_guest_stars!C868&amp;"','"&amp;simpsons_guest_stars!A868&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Judd Apatow','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B869&amp;"','"&amp;simpsons_guest_stars!C869&amp;"','"&amp;simpsons_guest_stars!A869&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Will Arnett','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B870&amp;"','"&amp;simpsons_guest_stars!C870&amp;"','"&amp;simpsons_guest_stars!A870&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rob Halford','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B871&amp;"','"&amp;simpsons_guest_stars!C871&amp;"','"&amp;simpsons_guest_stars!A871&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Leslie Mann','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B872&amp;"','"&amp;simpsons_guest_stars!C872&amp;"','"&amp;simpsons_guest_stars!A872&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B873&amp;"','"&amp;simpsons_guest_stars!C873&amp;"','"&amp;simpsons_guest_stars!A873&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Seth Rogen','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B874&amp;"','"&amp;simpsons_guest_stars!C874&amp;"','"&amp;simpsons_guest_stars!A874&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Paul Rudd','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B875&amp;"','"&amp;simpsons_guest_stars!C875&amp;"','"&amp;simpsons_guest_stars!A875&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Channing Tatum','SABF05','25');</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B876&amp;"','"&amp;simpsons_guest_stars!C876&amp;"','"&amp;simpsons_guest_stars!A876&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Harlan Ellison','SABF03','25');</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B877&amp;"','"&amp;simpsons_guest_stars!C877&amp;"','"&amp;simpsons_guest_stars!A877&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','SABF03','25');</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B878&amp;"','"&amp;simpsons_guest_stars!C878&amp;"','"&amp;simpsons_guest_stars!A878&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stan Lee','SABF03','25');</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B879&amp;"','"&amp;simpsons_guest_stars!C879&amp;"','"&amp;simpsons_guest_stars!A879&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','SABF06','25');</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B880&amp;"','"&amp;simpsons_guest_stars!C880&amp;"','"&amp;simpsons_guest_stars!A880&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Will Lyman','SABF06','25');</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B881&amp;"','"&amp;simpsons_guest_stars!C881&amp;"','"&amp;simpsons_guest_stars!A881&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Daniel Radcliffe','SABF08','25');</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B882&amp;"','"&amp;simpsons_guest_stars!C882&amp;"','"&amp;simpsons_guest_stars!A882&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','SABF07','25');</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B883&amp;"','"&amp;simpsons_guest_stars!C883&amp;"','"&amp;simpsons_guest_stars!A883&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','SABF09','25');</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B884&amp;"','"&amp;simpsons_guest_stars!C884&amp;"','"&amp;simpsons_guest_stars!A884&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Max von Sydow','SABF10','25');</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B885&amp;"','"&amp;simpsons_guest_stars!C885&amp;"','"&amp;simpsons_guest_stars!A885&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('AndrÃ©s Cantor','SABF11','25');</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B886&amp;"','"&amp;simpsons_guest_stars!C886&amp;"','"&amp;simpsons_guest_stars!A886&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Zach Galifianakis','SABF12','25');</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B887&amp;"','"&amp;simpsons_guest_stars!C887&amp;"','"&amp;simpsons_guest_stars!A887&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Amy Poehler','SABF13','25');</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B888&amp;"','"&amp;simpsons_guest_stars!C888&amp;"','"&amp;simpsons_guest_stars!A888&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tavi Gevinson','SABF14','25');</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B889&amp;"','"&amp;simpsons_guest_stars!C889&amp;"','"&amp;simpsons_guest_stars!A889&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','SABF14','25');</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B890&amp;"','"&amp;simpsons_guest_stars!C890&amp;"','"&amp;simpsons_guest_stars!A890&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Carl Kasell','SABF15','25');</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B891&amp;"','"&amp;simpsons_guest_stars!C891&amp;"','"&amp;simpsons_guest_stars!A891&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Oliver','SABF15','25');</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B892&amp;"','"&amp;simpsons_guest_stars!C892&amp;"','"&amp;simpsons_guest_stars!A892&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Peter Sagal','SABF15','25');</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B893&amp;"','"&amp;simpsons_guest_stars!C893&amp;"','"&amp;simpsons_guest_stars!A893&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','SABF18','25');</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B894&amp;"','"&amp;simpsons_guest_stars!C894&amp;"','"&amp;simpsons_guest_stars!A894&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Edwin Moses','SABF18','25');</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B895&amp;"','"&amp;simpsons_guest_stars!C895&amp;"','"&amp;simpsons_guest_stars!A895&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B896&amp;"','"&amp;simpsons_guest_stars!C896&amp;"','"&amp;simpsons_guest_stars!A896&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Don Hertzfeldt','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B897&amp;"','"&amp;simpsons_guest_stars!C897&amp;"','"&amp;simpsons_guest_stars!A897&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B898&amp;"','"&amp;simpsons_guest_stars!C898&amp;"','"&amp;simpsons_guest_stars!A898&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jackie Mason','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B899&amp;"','"&amp;simpsons_guest_stars!C899&amp;"','"&amp;simpsons_guest_stars!A899&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Hyde Pierce','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B900&amp;"','"&amp;simpsons_guest_stars!C900&amp;"','"&amp;simpsons_guest_stars!A900&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jeff Ross','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B901&amp;"','"&amp;simpsons_guest_stars!C901&amp;"','"&amp;simpsons_guest_stars!A901&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sarah Silverman','SABF20','26');</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B902&amp;"','"&amp;simpsons_guest_stars!C902&amp;"','"&amp;simpsons_guest_stars!A902&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nick Offerman','SABF17','26');</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B903&amp;"','"&amp;simpsons_guest_stars!C903&amp;"','"&amp;simpsons_guest_stars!A903&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John Ratzenberger','SABF21','26');</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B904&amp;"','"&amp;simpsons_guest_stars!C904&amp;"','"&amp;simpsons_guest_stars!A904&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jane Fonda','SABF22','26');</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B905&amp;"','"&amp;simpsons_guest_stars!C905&amp;"','"&amp;simpsons_guest_stars!A905&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Robert Siegel','SABF22','26');</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B906&amp;"','"&amp;simpsons_guest_stars!C906&amp;"','"&amp;simpsons_guest_stars!A906&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('John DiMaggio','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B907&amp;"','"&amp;simpsons_guest_stars!C907&amp;"','"&amp;simpsons_guest_stars!A907&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Herman','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B908&amp;"','"&amp;simpsons_guest_stars!C908&amp;"','"&amp;simpsons_guest_stars!A908&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Maurice LaMarche','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B909&amp;"','"&amp;simpsons_guest_stars!C909&amp;"','"&amp;simpsons_guest_stars!A909&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Phil LaMarr','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B910&amp;"','"&amp;simpsons_guest_stars!C910&amp;"','"&amp;simpsons_guest_stars!A910&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Katey Sagal','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B911&amp;"','"&amp;simpsons_guest_stars!C911&amp;"','"&amp;simpsons_guest_stars!A911&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lauren Tom','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B912&amp;"','"&amp;simpsons_guest_stars!C912&amp;"','"&amp;simpsons_guest_stars!A912&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Frank Welker','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B913&amp;"','"&amp;simpsons_guest_stars!C913&amp;"','"&amp;simpsons_guest_stars!A913&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Billy West','SABF16','26');</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B914&amp;"','"&amp;simpsons_guest_stars!C914&amp;"','"&amp;simpsons_guest_stars!A914&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Willem Dafoe','TABF01','26');</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B915&amp;"','"&amp;simpsons_guest_stars!C915&amp;"','"&amp;simpsons_guest_stars!A915&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','TABF01','26');</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B916&amp;"','"&amp;simpsons_guest_stars!C916&amp;"','"&amp;simpsons_guest_stars!A916&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Silverman','TABF01','26');</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B917&amp;"','"&amp;simpsons_guest_stars!C917&amp;"','"&amp;simpsons_guest_stars!A917&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Will Forte','TABF02','26');</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B918&amp;"','"&amp;simpsons_guest_stars!C918&amp;"','"&amp;simpsons_guest_stars!A918&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Sammy Hagar','TABF02','26');</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B919&amp;"','"&amp;simpsons_guest_stars!C919&amp;"','"&amp;simpsons_guest_stars!A919&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Heavy Young Heathens','TABF02','26');</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B920&amp;"','"&amp;simpsons_guest_stars!C920&amp;"','"&amp;simpsons_guest_stars!A920&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Matthew Sweet','TABF02','26');</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B921&amp;"','"&amp;simpsons_guest_stars!C921&amp;"','"&amp;simpsons_guest_stars!A921&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stacy Keach','TABF05','26');</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B922&amp;"','"&amp;simpsons_guest_stars!C922&amp;"','"&amp;simpsons_guest_stars!A922&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Elon Musk','TABF04','26');</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B923&amp;"','"&amp;simpsons_guest_stars!C923&amp;"','"&amp;simpsons_guest_stars!A923&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','TABF06','26');</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B924&amp;"','"&amp;simpsons_guest_stars!C924&amp;"','"&amp;simpsons_guest_stars!A924&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Pharrell Williams','TABF06','26');</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B925&amp;"','"&amp;simpsons_guest_stars!C925&amp;"','"&amp;simpsons_guest_stars!A925&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Christopher Lloyd','TABF07','26');</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B926&amp;"','"&amp;simpsons_guest_stars!C926&amp;"','"&amp;simpsons_guest_stars!A926&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Rich Sommer','TABF07','26');</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B927&amp;"','"&amp;simpsons_guest_stars!C927&amp;"','"&amp;simpsons_guest_stars!A927&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Richard Branson','TABF08','26');</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B928&amp;"','"&amp;simpsons_guest_stars!C928&amp;"','"&amp;simpsons_guest_stars!A928&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Yaya DaCosta','TABF08','26');</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B929&amp;"','"&amp;simpsons_guest_stars!C929&amp;"','"&amp;simpsons_guest_stars!A929&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','TABF08','26');</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B930&amp;"','"&amp;simpsons_guest_stars!C930&amp;"','"&amp;simpsons_guest_stars!A930&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','TABF08','26');</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B931&amp;"','"&amp;simpsons_guest_stars!C931&amp;"','"&amp;simpsons_guest_stars!A931&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nathan Fielder','TABF09','26');</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B932&amp;"','"&amp;simpsons_guest_stars!C932&amp;"','"&amp;simpsons_guest_stars!A932&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Cat Deeley','TABF10','26');</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B933&amp;"','"&amp;simpsons_guest_stars!C933&amp;"','"&amp;simpsons_guest_stars!A933&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('R. Lee Ermey','TABF10','26');</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B934&amp;"','"&amp;simpsons_guest_stars!C934&amp;"','"&amp;simpsons_guest_stars!A934&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stacy Keach','TABF10','26');</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B935&amp;"','"&amp;simpsons_guest_stars!C935&amp;"','"&amp;simpsons_guest_stars!A935&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','TABF13','26');</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B936&amp;"','"&amp;simpsons_guest_stars!C936&amp;"','"&amp;simpsons_guest_stars!A936&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Carice van Houten','TABF13','26');</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B937&amp;"','"&amp;simpsons_guest_stars!C937&amp;"','"&amp;simpsons_guest_stars!A937&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Albert Brooks','TABF15','26');</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B938&amp;"','"&amp;simpsons_guest_stars!C938&amp;"','"&amp;simpsons_guest_stars!A938&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Joe Mantegna','TABF15','26');</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B939&amp;"','"&amp;simpsons_guest_stars!C939&amp;"','"&amp;simpsons_guest_stars!A939&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Johnny Mathis','TABF15','26');</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B940&amp;"','"&amp;simpsons_guest_stars!C940&amp;"','"&amp;simpsons_guest_stars!A940&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Justin Roiland','TABF16','26');</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B941&amp;"','"&amp;simpsons_guest_stars!C941&amp;"','"&amp;simpsons_guest_stars!A941&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Adam Driver','TABF14','27');</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B942&amp;"','"&amp;simpsons_guest_stars!C942&amp;"','"&amp;simpsons_guest_stars!A942&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Lena Dunham','TABF14','27');</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B943&amp;"','"&amp;simpsons_guest_stars!C943&amp;"','"&amp;simpsons_guest_stars!A943&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Laura Ingraham','TABF14','27');</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B944&amp;"','"&amp;simpsons_guest_stars!C944&amp;"','"&amp;simpsons_guest_stars!A944&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jemima Kirke','TABF14','27');</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B945&amp;"','"&amp;simpsons_guest_stars!C945&amp;"','"&amp;simpsons_guest_stars!A945&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Zosia Mamet','TABF14','27');</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B946&amp;"','"&amp;simpsons_guest_stars!C946&amp;"','"&amp;simpsons_guest_stars!A946&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Allison Williams','TABF14','27');</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B947&amp;"','"&amp;simpsons_guest_stars!C947&amp;"','"&amp;simpsons_guest_stars!A947&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Alton Brown','TABF17','27');</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B948&amp;"','"&amp;simpsons_guest_stars!C948&amp;"','"&amp;simpsons_guest_stars!A948&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bobby Moynihan','TABF17','27');</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B949&amp;"','"&amp;simpsons_guest_stars!C949&amp;"','"&amp;simpsons_guest_stars!A949&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Edward James Olmos','TABF17','27');</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B950&amp;"','"&amp;simpsons_guest_stars!C950&amp;"','"&amp;simpsons_guest_stars!A950&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Ben Schwartz','TABF17','27');</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B951&amp;"','"&amp;simpsons_guest_stars!C951&amp;"','"&amp;simpsons_guest_stars!A951&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Lovitz','TABF19','27');</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B952&amp;"','"&amp;simpsons_guest_stars!C952&amp;"','"&amp;simpsons_guest_stars!A952&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Yo-Yo Ma','TABF19','27');</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B953&amp;"','"&amp;simpsons_guest_stars!C953&amp;"','"&amp;simpsons_guest_stars!A953&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Blake Anderson','TABF22','27');</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B954&amp;"','"&amp;simpsons_guest_stars!C954&amp;"','"&amp;simpsons_guest_stars!A954&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Nick Kroll','TABF22','27');</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B955&amp;"','"&amp;simpsons_guest_stars!C955&amp;"','"&amp;simpsons_guest_stars!A955&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','TABF18','27');</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B956&amp;"','"&amp;simpsons_guest_stars!C956&amp;"','"&amp;simpsons_guest_stars!A956&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Chris Wedge','TABF18','27');</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B957&amp;"','"&amp;simpsons_guest_stars!C957&amp;"','"&amp;simpsons_guest_stars!A957&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kristen Bell','TABF21','27');</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B958&amp;"','"&amp;simpsons_guest_stars!C958&amp;"','"&amp;simpsons_guest_stars!A958&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('David Copperfield','TABF21','27');</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B959&amp;"','"&amp;simpsons_guest_stars!C959&amp;"','"&amp;simpsons_guest_stars!A959&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Stephen Merchant','VABF03','27');</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B960&amp;"','"&amp;simpsons_guest_stars!C960&amp;"','"&amp;simpsons_guest_stars!A960&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kaitlin Olson','VABF03','27');</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B961&amp;"','"&amp;simpsons_guest_stars!C961&amp;"','"&amp;simpsons_guest_stars!A961&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('SofÃ­a Vergara','VABF04','27');</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B962&amp;"','"&amp;simpsons_guest_stars!C962&amp;"','"&amp;simpsons_guest_stars!A962&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Utkarsh Ambudkar','VABF05','27');</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B963&amp;"','"&amp;simpsons_guest_stars!C963&amp;"','"&amp;simpsons_guest_stars!A963&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Glenn Close','VABF07','27');</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B964&amp;"','"&amp;simpsons_guest_stars!C964&amp;"','"&amp;simpsons_guest_stars!A964&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Bob Boilen','VABF06','27');</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B965&amp;"','"&amp;simpsons_guest_stars!C965&amp;"','"&amp;simpsons_guest_stars!A965&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kelsey Grammer','VABF06','27');</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B966&amp;"','"&amp;simpsons_guest_stars!C966&amp;"','"&amp;simpsons_guest_stars!A966&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kate McKinnon','VABF06','27');</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B967&amp;"','"&amp;simpsons_guest_stars!C967&amp;"','"&amp;simpsons_guest_stars!A967&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Natalie Maines','VABF06','27');</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B968&amp;"','"&amp;simpsons_guest_stars!C968&amp;"','"&amp;simpsons_guest_stars!A968&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Michael York','VABF08','27');</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B969&amp;"','"&amp;simpsons_guest_stars!C969&amp;"','"&amp;simpsons_guest_stars!A969&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Tom Scharpling','VABF09','27');</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B970&amp;"','"&amp;simpsons_guest_stars!C970&amp;"','"&amp;simpsons_guest_stars!A970&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jon Wurster','VABF09','27');</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B971&amp;"','"&amp;simpsons_guest_stars!C971&amp;"','"&amp;simpsons_guest_stars!A971&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('George Takei','VABF10','27');</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B972&amp;"','"&amp;simpsons_guest_stars!C972&amp;"','"&amp;simpsons_guest_stars!A972&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Andrew Rannells','VABF11','27');</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B973&amp;"','"&amp;simpsons_guest_stars!C973&amp;"','"&amp;simpsons_guest_stars!A973&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Jay Leno','VABF14','27');</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" t="str">
+        <f>$A$1 &amp; "('"&amp;simpsons_guest_stars!B974&amp;"','"&amp;simpsons_guest_stars!C974&amp;"','"&amp;simpsons_guest_stars!A974&amp;"');"</f>
+        <v>INSERT INTO [dbo].[Guest_Star] ([Guest_Star] ,[Episode_Code],[Season]) VALUES ('Kevin Michael Richardson','VABF15','27');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>